--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15672" windowHeight="8976" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId13"/>
     <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
     <sheet name="LoyaltyPlan" sheetId="16" r:id="rId15"/>
+    <sheet name="Prepaid_Application_Upload" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:E21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="539">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1642,6 +1644,9 @@
   </si>
   <si>
     <t>121212</t>
+  </si>
+  <si>
+    <t>TC_Application_Upload_Prepaid</t>
   </si>
 </sst>
 </file>
@@ -3686,8 +3691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DL1" workbookViewId="0">
-      <selection activeCell="EB6" sqref="EB6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4484,6 +4489,811 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EE2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="DI1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="DJ1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="DM1" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="DP1" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="DQ1" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="DR1" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="DS1" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="DT1" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="DU1" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="DV1" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="DW1" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="DX1" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="DY1" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="DZ1" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="EA1" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="EB1" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="EC1" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="ED1" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="EE1" s="38" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>537</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="U2" s="11">
+        <v>50</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>1989</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM2" s="14">
+        <v>12345678</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB2" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="BD2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF2" s="12">
+        <v>12</v>
+      </c>
+      <c r="BG2" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="BH2" s="12">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="BN2" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="BS2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT2" s="12">
+        <v>12345678</v>
+      </c>
+      <c r="BU2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV2" s="12">
+        <v>12345678</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>512</v>
+      </c>
+      <c r="BX2" s="45"/>
+      <c r="BY2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="BZ2" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="CA2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB2" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="CC2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="CD2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="CE2" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="CF2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="CI2" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="CJ2" s="42"/>
+      <c r="CK2" s="42"/>
+      <c r="CL2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="CM2" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="CN2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="CO2" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="CP2" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="CQ2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="CR2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="CS2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="CT2" s="11"/>
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="CW2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="CX2" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="CY2" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ2" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="DA2" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="DB2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="12"/>
+      <c r="DG2" s="12"/>
+      <c r="DH2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="DI2" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="DJ2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="DK2" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="DL2" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="DM2" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="DN2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="DO2" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="DP2" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="DQ2" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="DR2" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="DS2" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="DT2" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="DU2" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="DV2" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="DW2" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="DX2" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY2" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="DZ2" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="EA2" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="EB2" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="EC2" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="ED2" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="EE2" s="43" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15672" windowHeight="8976" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="8970" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,11 @@
     <sheet name="Prepaid_Application_Upload" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="540">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1647,6 +1646,9 @@
   </si>
   <si>
     <t>TC_Application_Upload_Prepaid</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
   </si>
 </sst>
 </file>
@@ -2194,20 +2196,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2398,7 +2400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2585,7 +2587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2774,12 +2776,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2833,7 +2835,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -2939,7 +2941,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -2992,7 +2994,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>305</v>
       </c>
@@ -3045,7 +3047,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -3111,18 +3113,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.77734375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3142,7 +3144,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>390</v>
       </c>
@@ -3162,7 +3164,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>391</v>
       </c>
@@ -3182,7 +3184,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>398</v>
       </c>
@@ -3202,7 +3204,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>392</v>
       </c>
@@ -3222,7 +3224,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>393</v>
       </c>
@@ -3242,7 +3244,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>394</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>395</v>
       </c>
@@ -3295,26 +3297,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="24"/>
-    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="24"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3361,7 +3364,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>318</v>
       </c>
@@ -3404,17 +3407,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3432,24 +3435,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.21875" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.77734375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="24"/>
+    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>335</v>
       </c>
@@ -3537,7 +3540,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>341</v>
       </c>
@@ -3591,20 +3594,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>346</v>
       </c>
@@ -3695,14 +3698,14 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="75" max="75" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="75" max="75" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>491</v>
       </c>
@@ -4496,19 +4499,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4915,12 +4918,12 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>538</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>532</v>
@@ -5305,22 +5308,22 @@
       <selection activeCell="BR2" sqref="BR2:BR8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.42578125" customWidth="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" customWidth="1"/>
+    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5674,7 +5677,7 @@
       </c>
       <c r="DN1" s="4"/>
     </row>
-    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -6001,7 +6004,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -6559,7 +6562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -7117,7 +7120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -7398,7 +7401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -7679,7 +7682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS9"/>
       <c r="CT9" t="s">
         <v>162</v>
@@ -7688,7 +7691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -7697,7 +7700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -7706,502 +7709,502 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -8218,17 +8221,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8263,7 +8266,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -8290,7 +8293,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -8321,7 +8324,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -8342,7 +8345,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
@@ -8378,19 +8381,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8441,7 +8444,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -8492,7 +8495,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
@@ -8543,7 +8546,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
@@ -8594,7 +8597,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
@@ -8645,7 +8648,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
@@ -8707,13 +8710,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8733,7 +8736,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>258</v>
       </c>
@@ -8753,7 +8756,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
@@ -8784,12 +8787,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8818,7 +8821,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>264</v>
       </c>
@@ -8858,12 +8861,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8886,7 +8889,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
@@ -8909,7 +8912,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>274</v>
       </c>
@@ -8962,14 +8965,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8989,7 +8992,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -9009,7 +9012,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
@@ -9042,35 +9045,35 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>301</v>
       </c>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15672" windowHeight="8976" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15672" windowHeight="8976" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,11 @@
     <sheet name="Prepaid_Application_Upload" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="565">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -935,9 +934,6 @@
     <t>Collect Portal Support</t>
   </si>
   <si>
-    <t>TC1InstituteCreation</t>
-  </si>
-  <si>
     <t>TC264384_Privilege validation for RuPay Settlement Bin Configurations</t>
   </si>
   <si>
@@ -1106,9 +1102,6 @@
     <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
   </si>
   <si>
-    <t>AdminBankName</t>
-  </si>
-  <si>
     <t>Reference Currency</t>
   </si>
   <si>
@@ -1163,15 +1156,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>FEMA</t>
-  </si>
-  <si>
-    <t>1100440052</t>
-  </si>
-  <si>
     <t>English [EN]</t>
   </si>
   <si>
@@ -1181,9 +1165,6 @@
     <t>testuser124421@gmail.com</t>
   </si>
   <si>
-    <t>5431267812</t>
-  </si>
-  <si>
     <t>July/2/2018</t>
   </si>
   <si>
@@ -1193,15 +1174,9 @@
     <t>Record Added Successfully.</t>
   </si>
   <si>
-    <t>999</t>
-  </si>
-  <si>
     <t>Batch [ROLE000052]</t>
   </si>
   <si>
-    <t>NewUser</t>
-  </si>
-  <si>
     <t>TC417600_Additional field for Customer Master Download file</t>
   </si>
   <si>
@@ -1647,6 +1622,108 @@
   </si>
   <si>
     <t>TC_Application_Upload_Prepaid</t>
+  </si>
+  <si>
+    <t>AdaptiveEcomm</t>
+  </si>
+  <si>
+    <t>MPIN Enabled</t>
+  </si>
+  <si>
+    <t>SMS Service Provider</t>
+  </si>
+  <si>
+    <t>CollectPortalAdminName</t>
+  </si>
+  <si>
+    <t>AgentPortalAdminName</t>
+  </si>
+  <si>
+    <t>CreatedInstitution</t>
+  </si>
+  <si>
+    <t>CreatedUser</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationPR</t>
+  </si>
+  <si>
+    <t>PREISS</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SDN Name Address [SDN1]</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>CollectAdm</t>
+  </si>
+  <si>
+    <t>Agentadm</t>
+  </si>
+  <si>
+    <t>ISSUINGXH</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDC</t>
+  </si>
+  <si>
+    <t>DEBISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationCR</t>
+  </si>
+  <si>
+    <t>CREISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCPR</t>
+  </si>
+  <si>
+    <t>DEBPRE</t>
+  </si>
+  <si>
+    <t>DEBPREXF</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationPRCR</t>
+  </si>
+  <si>
+    <t>PRECRE</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDTCR</t>
+  </si>
+  <si>
+    <t>DEBCRE</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationAll</t>
+  </si>
+  <si>
+    <t>ALLISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCWithoutAgentPortal</t>
+  </si>
+  <si>
+    <t>PREWOAGNT</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationCRWithoutCollectPortal</t>
+  </si>
+  <si>
+    <t>CREWOCOLL</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationAllWithoutAgentCollect</t>
+  </si>
+  <si>
+    <t>ALLWOAGCO</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1733,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1680,8 +1757,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1692,6 +1789,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1795,7 +1898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1858,8 +1961,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1883,6 +1984,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2835,7 +2944,7 @@
     </row>
     <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>201</v>
@@ -2888,7 +2997,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>201</v>
@@ -2941,7 +3050,7 @@
     </row>
     <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>201</v>
@@ -2994,7 +3103,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>201</v>
@@ -3047,7 +3156,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>201</v>
@@ -3114,9 +3223,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61.77734375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="33" customWidth="1"/>
     <col min="5" max="5" width="19.21875" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="31"/>
@@ -3127,13 +3236,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3144,142 +3253,142 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>321</v>
+        <v>356</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>321</v>
+      <c r="D3" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>321</v>
+        <v>356</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>321</v>
+      <c r="C5" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>321</v>
+      <c r="C6" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>321</v>
+      <c r="C7" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>321</v>
+      <c r="C8" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3319,43 +3428,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>314</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>315</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>316</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>317</v>
       </c>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
@@ -3363,42 +3472,42 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>327</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>328</v>
       </c>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
       <c r="N2" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
@@ -3454,84 +3563,84 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>333</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>334</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>316</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>321</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="E2" s="25">
         <v>123456</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>339</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>340</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
@@ -3539,40 +3648,40 @@
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>321</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="E3" s="25">
         <v>123456</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="K3" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="L3" s="26" t="s">
         <v>339</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>340</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
@@ -3609,69 +3718,69 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="27" t="s">
         <v>344</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>350</v>
-      </c>
       <c r="K2" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3707,61 +3816,61 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>130</v>
@@ -3782,10 +3891,10 @@
         <v>102</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>75</v>
@@ -3866,7 +3975,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -3905,7 +4014,7 @@
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -3941,7 +4050,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -4046,129 +4155,129 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="DO1" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="DP1" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="DQ1" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="DR1" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="DS1" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="DT1" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="DU1" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="DV1" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="DW1" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="DP1" s="38" t="s">
+      <c r="DX1" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="DQ1" s="38" t="s">
+      <c r="DY1" s="36" t="s">
         <v>476</v>
       </c>
-      <c r="DR1" s="38" t="s">
+      <c r="DZ1" s="36" t="s">
         <v>477</v>
       </c>
-      <c r="DS1" s="38" t="s">
+      <c r="EA1" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="DT1" s="38" t="s">
+      <c r="EB1" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="DU1" s="38" t="s">
+      <c r="EC1" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="DV1" s="38" t="s">
+      <c r="ED1" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="DW1" s="38" t="s">
+      <c r="EE1" s="36" t="s">
         <v>482</v>
-      </c>
-      <c r="DX1" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="DY1" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="DZ1" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="EA1" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="EB1" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="EC1" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="ED1" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="EE1" s="38" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>537</v>
+        <v>524</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>529</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="R2" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="S2" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="T2" s="38" t="s">
         <v>495</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>497</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>499</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>500</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>502</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>533</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>503</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -4188,24 +4297,24 @@
       <c r="Z2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -4226,7 +4335,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -4263,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -4275,7 +4384,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -4293,7 +4402,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>199</v>
@@ -4307,8 +4416,8 @@
       <c r="BQ2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BR2" s="41" t="s">
-        <v>416</v>
+      <c r="BR2" s="39" t="s">
+        <v>408</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>31</v>
@@ -4323,20 +4432,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>512</v>
-      </c>
-      <c r="BX2" s="45"/>
+        <v>504</v>
+      </c>
+      <c r="BX2" s="43"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -4345,34 +4454,34 @@
         <v>134</v>
       </c>
       <c r="CE2" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CF2" s="12" t="s">
         <v>71</v>
       </c>
       <c r="CG2" s="12"/>
-      <c r="CH2" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="CI2" s="45" t="s">
-        <v>417</v>
-      </c>
-      <c r="CJ2" s="42"/>
-      <c r="CK2" s="42"/>
+      <c r="CH2" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="CI2" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="CJ2" s="40"/>
+      <c r="CK2" s="40"/>
       <c r="CL2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="45" t="s">
-        <v>530</v>
+      <c r="CM2" s="43" t="s">
+        <v>522</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="CP2" s="42" t="s">
-        <v>356</v>
+        <v>502</v>
+      </c>
+      <c r="CP2" s="40" t="s">
+        <v>355</v>
       </c>
       <c r="CQ2" s="11" t="s">
         <v>48</v>
@@ -4385,23 +4494,23 @@
       </c>
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
-      <c r="CV2" s="42" t="s">
-        <v>500</v>
+      <c r="CV2" s="40" t="s">
+        <v>492</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CX2" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="CY2" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="CZ2" s="42" t="s">
-        <v>420</v>
-      </c>
-      <c r="DA2" s="42" t="s">
-        <v>421</v>
+      <c r="CX2" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="CY2" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="CZ2" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="DA2" s="40" t="s">
+        <v>413</v>
       </c>
       <c r="DB2" s="12" t="s">
         <v>91</v>
@@ -4423,67 +4532,67 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="DL2" s="11" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="DM2" s="12" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>197</v>
       </c>
       <c r="DO2" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="DP2" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="DQ2" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="DR2" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="DS2" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="DT2" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="DU2" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="DV2" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="DW2" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="DX2" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="DY2" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="DZ2" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="DP2" s="43" t="s">
+      <c r="EA2" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="EB2" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="EC2" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="DQ2" s="43" t="s">
+      <c r="ED2" s="42" t="s">
         <v>519</v>
       </c>
-      <c r="DR2" s="43" t="s">
+      <c r="EE2" s="41" t="s">
         <v>520</v>
-      </c>
-      <c r="DS2" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="DT2" s="44" t="s">
-        <v>415</v>
-      </c>
-      <c r="DU2" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="DV2" s="43" t="s">
-        <v>523</v>
-      </c>
-      <c r="DW2" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="DX2" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="DY2" s="44" t="s">
-        <v>524</v>
-      </c>
-      <c r="DZ2" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="EA2" s="44" t="s">
-        <v>498</v>
-      </c>
-      <c r="EB2" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="EC2" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="ED2" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="EE2" s="43" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -4496,7 +4605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4513,61 +4622,61 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>130</v>
@@ -4588,10 +4697,10 @@
         <v>102</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>75</v>
@@ -4672,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -4711,7 +4820,7 @@
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -4747,7 +4856,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -4852,129 +4961,129 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="DO1" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="DP1" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="DQ1" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="DR1" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="DS1" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="DT1" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="DU1" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="DV1" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="DW1" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="DP1" s="38" t="s">
+      <c r="DX1" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="DQ1" s="38" t="s">
+      <c r="DY1" s="36" t="s">
         <v>476</v>
       </c>
-      <c r="DR1" s="38" t="s">
+      <c r="DZ1" s="36" t="s">
         <v>477</v>
       </c>
-      <c r="DS1" s="38" t="s">
+      <c r="EA1" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="DT1" s="38" t="s">
+      <c r="EB1" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="DU1" s="38" t="s">
+      <c r="EC1" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="DV1" s="38" t="s">
+      <c r="ED1" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="DW1" s="38" t="s">
+      <c r="EE1" s="36" t="s">
         <v>482</v>
-      </c>
-      <c r="DX1" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="DY1" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="DZ1" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="EA1" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="EB1" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="EC1" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="ED1" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="EE1" s="38" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>537</v>
+        <v>524</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>529</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="R2" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="S2" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="T2" s="38" t="s">
         <v>495</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>497</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>499</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>500</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>502</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>533</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>503</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -4994,24 +5103,24 @@
       <c r="Z2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -5032,7 +5141,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -5069,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -5081,7 +5190,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -5099,7 +5208,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>199</v>
@@ -5113,8 +5222,8 @@
       <c r="BQ2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BR2" s="41" t="s">
-        <v>416</v>
+      <c r="BR2" s="39" t="s">
+        <v>408</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>31</v>
@@ -5129,20 +5238,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>512</v>
-      </c>
-      <c r="BX2" s="45"/>
+        <v>504</v>
+      </c>
+      <c r="BX2" s="43"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -5151,34 +5260,34 @@
         <v>134</v>
       </c>
       <c r="CE2" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CF2" s="12" t="s">
         <v>71</v>
       </c>
       <c r="CG2" s="12"/>
-      <c r="CH2" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="CI2" s="45" t="s">
-        <v>417</v>
-      </c>
-      <c r="CJ2" s="42"/>
-      <c r="CK2" s="42"/>
+      <c r="CH2" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="CI2" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="CJ2" s="40"/>
+      <c r="CK2" s="40"/>
       <c r="CL2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="45" t="s">
-        <v>530</v>
+      <c r="CM2" s="43" t="s">
+        <v>522</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="CP2" s="42" t="s">
-        <v>356</v>
+        <v>502</v>
+      </c>
+      <c r="CP2" s="40" t="s">
+        <v>355</v>
       </c>
       <c r="CQ2" s="11" t="s">
         <v>48</v>
@@ -5191,23 +5300,23 @@
       </c>
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
-      <c r="CV2" s="42" t="s">
-        <v>500</v>
+      <c r="CV2" s="40" t="s">
+        <v>492</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CX2" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="CY2" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="CZ2" s="42" t="s">
-        <v>420</v>
-      </c>
-      <c r="DA2" s="42" t="s">
-        <v>421</v>
+      <c r="CX2" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="CY2" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="CZ2" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="DA2" s="40" t="s">
+        <v>413</v>
       </c>
       <c r="DB2" s="12" t="s">
         <v>91</v>
@@ -5229,67 +5338,67 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="DL2" s="11" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="DM2" s="12" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>197</v>
       </c>
       <c r="DO2" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="DP2" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="DQ2" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="DR2" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="DS2" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="DT2" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="DU2" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="DV2" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="DW2" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="DX2" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="DY2" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="DZ2" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="DP2" s="43" t="s">
+      <c r="EA2" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="EB2" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="EC2" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="DQ2" s="43" t="s">
+      <c r="ED2" s="42" t="s">
         <v>519</v>
       </c>
-      <c r="DR2" s="43" t="s">
+      <c r="EE2" s="41" t="s">
         <v>520</v>
-      </c>
-      <c r="DS2" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="DT2" s="44" t="s">
-        <v>415</v>
-      </c>
-      <c r="DU2" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="DV2" s="43" t="s">
-        <v>523</v>
-      </c>
-      <c r="DW2" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="DX2" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="DY2" s="44" t="s">
-        <v>524</v>
-      </c>
-      <c r="DZ2" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="EA2" s="44" t="s">
-        <v>498</v>
-      </c>
-      <c r="EB2" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="EC2" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="ED2" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="EE2" s="43" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -5325,13 +5434,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5370,10 +5479,10 @@
         <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>106</v>
@@ -5562,16 +5671,16 @@
         <v>50</v>
       </c>
       <c r="CC1" s="4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="CD1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="CE1" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="CF1" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="CG1" s="4" t="s">
         <v>94</v>
@@ -5619,58 +5728,58 @@
         <v>60</v>
       </c>
       <c r="CV1" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="CW1" s="4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="CX1" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="CY1" s="4" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="CZ1" s="4" t="s">
         <v>193</v>
       </c>
       <c r="DA1" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="DI1" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="DF1" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="DG1" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="DH1" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="DI1" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="DJ1" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="DK1" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="DL1" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="DN1" s="4"/>
     </row>
@@ -5679,19 +5788,19 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>129</v>
@@ -5714,16 +5823,16 @@
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q2" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R2" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S2" s="29" t="s">
         <v>246</v>
@@ -5735,13 +5844,13 @@
         <v>36</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>139</v>
@@ -5765,7 +5874,7 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AG2" s="28" t="s">
         <v>9</v>
@@ -5774,7 +5883,7 @@
         <v>10</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ2" s="28" t="s">
         <v>11</v>
@@ -5786,7 +5895,7 @@
         <v>56</v>
       </c>
       <c r="AM2" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN2" s="28" t="s">
         <v>16</v>
@@ -5795,13 +5904,13 @@
         <v>129</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ2" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR2" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS2" s="28" t="s">
         <v>147</v>
@@ -5829,19 +5938,19 @@
         <v>36</v>
       </c>
       <c r="BB2" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG2" s="28" t="s">
         <v>35</v>
@@ -5869,10 +5978,10 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ2" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR2" s="28"/>
       <c r="BS2" s="9"/>
@@ -5888,7 +5997,7 @@
         <v>195</v>
       </c>
       <c r="BY2" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ2" s="9" t="s">
         <v>48</v>
@@ -5900,7 +6009,7 @@
         <v>61</v>
       </c>
       <c r="CC2" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
@@ -5909,16 +6018,16 @@
         <v>133</v>
       </c>
       <c r="CH2" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI2" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ2" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK2" s="28" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL2" s="28" t="s">
         <v>91</v>
@@ -5927,16 +6036,16 @@
         <v>138</v>
       </c>
       <c r="CN2" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO2" s="9" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP2" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ2" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ2" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR2" s="28" t="s">
         <v>200</v>
@@ -5944,14 +6053,14 @@
       <c r="CS2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="CT2" s="36" t="s">
+      <c r="CT2" s="34" t="s">
         <v>53</v>
       </c>
       <c r="CU2" s="9">
         <v>100</v>
       </c>
-      <c r="CV2" s="37" t="s">
-        <v>450</v>
+      <c r="CV2" s="35" t="s">
+        <v>442</v>
       </c>
       <c r="CW2" s="9">
         <v>5</v>
@@ -5963,16 +6072,16 @@
         <v>71</v>
       </c>
       <c r="CZ2" s="9" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="DA2" s="9" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="DB2" s="9">
         <v>6</v>
       </c>
       <c r="DC2" s="9" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="DD2" s="9">
         <v>2</v>
@@ -5984,13 +6093,13 @@
         <v>1</v>
       </c>
       <c r="DG2" s="9" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="DH2" s="9">
         <v>3</v>
       </c>
       <c r="DI2" s="9" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="DJ2" s="9">
         <v>3</v>
@@ -5998,7 +6107,7 @@
       <c r="DK2" s="9"/>
       <c r="DL2" s="9"/>
       <c r="DM2" s="9" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
@@ -6006,19 +6115,19 @@
         <v>140</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>129</v>
@@ -6041,16 +6150,16 @@
       </c>
       <c r="N3" s="28"/>
       <c r="O3" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P3" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q3" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R3" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S3" s="29" t="s">
         <v>246</v>
@@ -6062,13 +6171,13 @@
         <v>36</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W3" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>139</v>
@@ -6092,7 +6201,7 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>9</v>
@@ -6101,7 +6210,7 @@
         <v>10</v>
       </c>
       <c r="AI3" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>11</v>
@@ -6113,7 +6222,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN3" s="28" t="s">
         <v>16</v>
@@ -6122,13 +6231,13 @@
         <v>129</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ3" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR3" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS3" s="28" t="s">
         <v>148</v>
@@ -6156,19 +6265,19 @@
         <v>36</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF3" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG3" s="28" t="s">
         <v>35</v>
@@ -6196,17 +6305,17 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ3" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR3" s="28"/>
       <c r="BS3" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BT3" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BU3" s="9" t="s">
         <v>40</v>
@@ -6219,7 +6328,7 @@
         <v>195</v>
       </c>
       <c r="BY3" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ3" s="9" t="s">
         <v>48</v>
@@ -6238,16 +6347,16 @@
         <v>133</v>
       </c>
       <c r="CH3" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI3" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ3" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK3" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL3" s="28" t="s">
         <v>91</v>
@@ -6256,16 +6365,16 @@
         <v>138</v>
       </c>
       <c r="CN3" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO3" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP3" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ3" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ3" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR3" s="29" t="s">
         <v>200</v>
@@ -6285,19 +6394,19 @@
         <v>150</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>129</v>
@@ -6320,16 +6429,16 @@
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q4" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R4" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S4" s="29" t="s">
         <v>246</v>
@@ -6341,13 +6450,13 @@
         <v>36</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>139</v>
@@ -6371,7 +6480,7 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AG4" s="28" t="s">
         <v>9</v>
@@ -6380,7 +6489,7 @@
         <v>10</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>11</v>
@@ -6392,7 +6501,7 @@
         <v>56</v>
       </c>
       <c r="AM4" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN4" s="28" t="s">
         <v>16</v>
@@ -6401,13 +6510,13 @@
         <v>129</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ4" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR4" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS4" s="28" t="s">
         <v>152</v>
@@ -6435,19 +6544,19 @@
         <v>36</v>
       </c>
       <c r="BB4" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG4" s="28" t="s">
         <v>35</v>
@@ -6475,17 +6584,17 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR4" s="28"/>
       <c r="BS4" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BT4" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BU4" s="9" t="s">
         <v>40</v>
@@ -6498,7 +6607,7 @@
         <v>195</v>
       </c>
       <c r="BY4" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ4" s="9" t="s">
         <v>48</v>
@@ -6517,16 +6626,16 @@
         <v>133</v>
       </c>
       <c r="CH4" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI4" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ4" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK4" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL4" s="28" t="s">
         <v>91</v>
@@ -6535,16 +6644,16 @@
         <v>138</v>
       </c>
       <c r="CN4" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO4" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP4" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ4" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ4" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR4" s="29" t="s">
         <v>200</v>
@@ -6564,19 +6673,19 @@
         <v>156</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>129</v>
@@ -6599,16 +6708,16 @@
       </c>
       <c r="N5" s="28"/>
       <c r="O5" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q5" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R5" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S5" s="29" t="s">
         <v>246</v>
@@ -6620,13 +6729,13 @@
         <v>36</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W5" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>139</v>
@@ -6650,7 +6759,7 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>9</v>
@@ -6659,7 +6768,7 @@
         <v>10</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>11</v>
@@ -6671,7 +6780,7 @@
         <v>56</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN5" s="28" t="s">
         <v>16</v>
@@ -6680,13 +6789,13 @@
         <v>129</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ5" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR5" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS5" s="28" t="s">
         <v>158</v>
@@ -6714,19 +6823,19 @@
         <v>36</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG5" s="28" t="s">
         <v>35</v>
@@ -6754,17 +6863,17 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ5" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR5" s="28"/>
       <c r="BS5" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BT5" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BU5" s="9" t="s">
         <v>40</v>
@@ -6777,7 +6886,7 @@
         <v>195</v>
       </c>
       <c r="BY5" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ5" s="9" t="s">
         <v>48</v>
@@ -6796,16 +6905,16 @@
         <v>133</v>
       </c>
       <c r="CH5" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI5" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ5" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK5" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL5" s="28" t="s">
         <v>91</v>
@@ -6814,16 +6923,16 @@
         <v>138</v>
       </c>
       <c r="CN5" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO5" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP5" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ5" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ5" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR5" s="29" t="s">
         <v>200</v>
@@ -6843,19 +6952,19 @@
         <v>163</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>129</v>
@@ -6878,16 +6987,16 @@
       </c>
       <c r="N6" s="28"/>
       <c r="O6" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q6" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R6" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S6" s="29" t="s">
         <v>246</v>
@@ -6899,13 +7008,13 @@
         <v>36</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>139</v>
@@ -6929,7 +7038,7 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AG6" s="28" t="s">
         <v>9</v>
@@ -6938,7 +7047,7 @@
         <v>10</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>11</v>
@@ -6950,7 +7059,7 @@
         <v>56</v>
       </c>
       <c r="AM6" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN6" s="28" t="s">
         <v>16</v>
@@ -6959,13 +7068,13 @@
         <v>129</v>
       </c>
       <c r="AP6" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ6" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR6" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS6" s="28" t="s">
         <v>165</v>
@@ -6993,19 +7102,19 @@
         <v>36</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE6" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG6" s="28" t="s">
         <v>35</v>
@@ -7033,17 +7142,17 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR6" s="28"/>
       <c r="BS6" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BT6" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BU6" s="9" t="s">
         <v>40</v>
@@ -7056,7 +7165,7 @@
         <v>195</v>
       </c>
       <c r="BY6" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ6" s="9" t="s">
         <v>48</v>
@@ -7075,16 +7184,16 @@
         <v>133</v>
       </c>
       <c r="CH6" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI6" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ6" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK6" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL6" s="28" t="s">
         <v>91</v>
@@ -7093,16 +7202,16 @@
         <v>138</v>
       </c>
       <c r="CN6" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO6" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP6" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ6" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ6" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR6" s="29" t="s">
         <v>200</v>
@@ -7122,19 +7231,19 @@
         <v>169</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>129</v>
@@ -7157,16 +7266,16 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q7" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R7" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S7" s="29" t="s">
         <v>246</v>
@@ -7178,13 +7287,13 @@
         <v>36</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>139</v>
@@ -7208,7 +7317,7 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>9</v>
@@ -7217,7 +7326,7 @@
         <v>10</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>11</v>
@@ -7229,7 +7338,7 @@
         <v>56</v>
       </c>
       <c r="AM7" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN7" s="28" t="s">
         <v>16</v>
@@ -7238,13 +7347,13 @@
         <v>129</v>
       </c>
       <c r="AP7" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ7" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR7" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS7" s="28" t="s">
         <v>171</v>
@@ -7272,19 +7381,19 @@
         <v>36</v>
       </c>
       <c r="BB7" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG7" s="28" t="s">
         <v>35</v>
@@ -7312,17 +7421,17 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR7" s="28"/>
       <c r="BS7" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BT7" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BU7" s="9" t="s">
         <v>40</v>
@@ -7335,7 +7444,7 @@
         <v>195</v>
       </c>
       <c r="BY7" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ7" s="9" t="s">
         <v>48</v>
@@ -7349,23 +7458,23 @@
       <c r="CC7" s="9"/>
       <c r="CD7" s="9"/>
       <c r="CE7" s="9" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="CF7" s="28"/>
       <c r="CG7" s="9" t="s">
         <v>133</v>
       </c>
       <c r="CH7" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI7" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ7" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK7" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL7" s="28" t="s">
         <v>91</v>
@@ -7374,16 +7483,16 @@
         <v>138</v>
       </c>
       <c r="CN7" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO7" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP7" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ7" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ7" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR7" s="29" t="s">
         <v>200</v>
@@ -7403,19 +7512,19 @@
         <v>175</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>129</v>
@@ -7438,16 +7547,16 @@
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q8" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R8" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S8" s="29" t="s">
         <v>246</v>
@@ -7459,13 +7568,13 @@
         <v>36</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W8" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>139</v>
@@ -7489,7 +7598,7 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="AG8" s="28" t="s">
         <v>9</v>
@@ -7498,7 +7607,7 @@
         <v>10</v>
       </c>
       <c r="AI8" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>11</v>
@@ -7510,7 +7619,7 @@
         <v>56</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN8" s="28" t="s">
         <v>16</v>
@@ -7519,13 +7628,13 @@
         <v>129</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ8" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR8" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS8" s="28" t="s">
         <v>177</v>
@@ -7553,19 +7662,19 @@
         <v>36</v>
       </c>
       <c r="BB8" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG8" s="28" t="s">
         <v>35</v>
@@ -7593,17 +7702,17 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ8" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR8" s="28"/>
       <c r="BS8" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BT8" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BU8" s="9" t="s">
         <v>40</v>
@@ -7616,7 +7725,7 @@
         <v>195</v>
       </c>
       <c r="BY8" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ8" s="9" t="s">
         <v>48</v>
@@ -7630,23 +7739,23 @@
       <c r="CC8" s="9"/>
       <c r="CD8" s="9"/>
       <c r="CE8" s="9" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="CF8" s="28"/>
       <c r="CG8" s="9" t="s">
         <v>133</v>
       </c>
       <c r="CH8" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI8" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ8" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK8" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL8" s="28" t="s">
         <v>91</v>
@@ -7655,16 +7764,16 @@
         <v>138</v>
       </c>
       <c r="CN8" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO8" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP8" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ8" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ8" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR8" s="29" t="s">
         <v>200</v>
@@ -9036,10 +9145,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1:DS1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9070,320 +9179,1799 @@
     <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="45" t="s">
         <v>358</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="V1" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="W1" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y1" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z1" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA1" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB1" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC1" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD1" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE1" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF1" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG1" s="45" t="s">
         <v>359</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="AH1" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK1" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL1" s="45" t="s">
         <v>361</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="45" t="s">
         <v>367</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="45" t="s">
         <v>370</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="BA1" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="BB1" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="BC1" s="45" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>16</v>
+      </c>
+      <c r="R2" s="47">
+        <v>16</v>
+      </c>
+      <c r="S2" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="T2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="U2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="V2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="W2" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y2" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="Z2" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AC2" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AD2" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE2" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF2" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH2" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI2" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK2" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AL2" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AM2" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN2" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO2" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="AP2" s="47" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="D2" s="9">
-        <v>8520</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="AT2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AV2" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="AW2" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX2" s="47">
+        <v>999</v>
+      </c>
+      <c r="AY2" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ2" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BA2" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB2" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="BC2" s="47"/>
+    </row>
+    <row r="3" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="D3" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="I3" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J3" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" s="47">
+        <v>16</v>
+      </c>
+      <c r="R3" s="47">
+        <v>16</v>
+      </c>
+      <c r="S3" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="T3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="U3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="W3" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="X3" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y3" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="Z3" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA3" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AC3" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AD3" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE3" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF3" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG3" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH3" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI3" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK3" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AL3" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AM3" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN3" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO3" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP3" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT3" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU3" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AV3" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW3" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX3" s="47">
+        <v>999</v>
+      </c>
+      <c r="AY3" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ3" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BA3" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+    </row>
+    <row r="4" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="F4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="G4" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="J4" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="9" t="s">
+      <c r="K4" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="L4" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="M4" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="P4" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q4" s="47">
+        <v>16</v>
+      </c>
+      <c r="R4" s="47">
+        <v>16</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="U4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="W4" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="X4" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y4" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="Z4" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA4" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AC4" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AD4" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE4" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF4" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG4" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH4" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK4" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AL4" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AM4" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN4" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO4" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP4" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT4" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU4" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AV4" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW4" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX4" s="47">
+        <v>999</v>
+      </c>
+      <c r="AY4" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ4" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BA4" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+    </row>
+    <row r="5" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="O5" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9" t="s">
+      <c r="P5" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="U2" s="9">
+      <c r="Q5" s="47">
         <v>16</v>
       </c>
-      <c r="V2" s="9">
+      <c r="R5" s="47">
         <v>16</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="32" t="s">
+      <c r="S5" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="U5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="V5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="W5" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="X5" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y5" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="Z5" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA5" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AC5" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AD5" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE5" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF5" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG5" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH5" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI5" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK5" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AL5" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AM5" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN5" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO5" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP5" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT5" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU5" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AV5" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW5" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="AX5" s="47">
+        <v>999</v>
+      </c>
+      <c r="AY5" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ5" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BA5" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB5" s="47" t="s">
+        <v>552</v>
+      </c>
+      <c r="BC5" s="47"/>
+    </row>
+    <row r="6" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>16</v>
+      </c>
+      <c r="R6" s="47">
+        <v>16</v>
+      </c>
+      <c r="S6" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="T6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="U6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="V6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="W6" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="X6" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="Y6" s="47">
         <v>45665456</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="Z6" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AA6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AB6" s="47">
         <v>1113332</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AC6" s="47">
         <v>23564589</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AD6" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AE6" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AF6" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AG6" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AH6" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AI6" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AJ6" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AM2" s="9">
+      <c r="AK6" s="47">
         <v>411006</v>
       </c>
-      <c r="AN2" s="9">
+      <c r="AL6" s="47">
         <v>124421</v>
       </c>
-      <c r="AO2" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AM6" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN6" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO6" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP6" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT6" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU6" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AV6" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW6" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX6" s="47">
+        <v>999</v>
+      </c>
+      <c r="AY6" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AZ6" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BA6" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB6" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="BC6" s="47"/>
+    </row>
+    <row r="7" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>556</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="47">
+        <v>16</v>
+      </c>
+      <c r="R7" s="47">
+        <v>16</v>
+      </c>
+      <c r="S7" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="T7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="U7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="V7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="W7" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="X7" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y7" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="Z7" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA7" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AC7" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AD7" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE7" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF7" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG7" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH7" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI7" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ7" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK7" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AL7" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AM7" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN7" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AO7" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP7" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AW2" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>386</v>
-      </c>
+      <c r="AU7" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AV7" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW7" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX7" s="47">
+        <v>999</v>
+      </c>
+      <c r="AY7" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ7" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BA7" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB7" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="BC7" s="47"/>
+    </row>
+    <row r="8" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="P8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q8" s="47">
+        <v>16</v>
+      </c>
+      <c r="R8" s="47">
+        <v>16</v>
+      </c>
+      <c r="S8" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="T8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="U8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="V8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="W8" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="X8" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y8" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="Z8" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA8" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AC8" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AD8" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE8" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF8" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG8" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH8" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI8" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ8" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK8" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AL8" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AM8" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN8" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO8" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP8" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT8" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU8" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AV8" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW8" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX8" s="47">
+        <v>999</v>
+      </c>
+      <c r="AY8" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ8" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BA8" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB8" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="BC8" s="47"/>
+    </row>
+    <row r="9" spans="1:55" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>560</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="P9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q9" s="47">
+        <v>16</v>
+      </c>
+      <c r="R9" s="47">
+        <v>16</v>
+      </c>
+      <c r="S9" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="T9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="U9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="V9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="W9" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="X9" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y9" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="Z9" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA9" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AC9" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AD9" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE9" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF9" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG9" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH9" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI9" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ9" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK9" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AL9" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AM9" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN9" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO9" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP9" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="47"/>
+      <c r="AS9" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT9" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AV9" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW9" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX9" s="47">
+        <v>999</v>
+      </c>
+      <c r="AY9" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ9" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BA9" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB9" s="47"/>
+      <c r="BC9" s="47"/>
+    </row>
+    <row r="10" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>561</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="P10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="47">
+        <v>16</v>
+      </c>
+      <c r="R10" s="47">
+        <v>16</v>
+      </c>
+      <c r="S10" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="T10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="U10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="V10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="W10" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="X10" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y10" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="Z10" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA10" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AC10" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AD10" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE10" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF10" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG10" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH10" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI10" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ10" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK10" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AL10" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AM10" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN10" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO10" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP10" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ10" s="47"/>
+      <c r="AR10" s="47"/>
+      <c r="AS10" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT10" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU10" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AV10" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW10" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX10" s="47">
+        <v>999</v>
+      </c>
+      <c r="AY10" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ10" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BA10" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB10" s="47"/>
+      <c r="BC10" s="47"/>
+    </row>
+    <row r="11" spans="1:55" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>564</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="47">
+        <v>16</v>
+      </c>
+      <c r="R11" s="47">
+        <v>16</v>
+      </c>
+      <c r="S11" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="T11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="U11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="V11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="W11" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="X11" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y11" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="Z11" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA11" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AC11" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AD11" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE11" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF11" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG11" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH11" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI11" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ11" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK11" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AL11" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AM11" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN11" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO11" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP11" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT11" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU11" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AV11" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW11" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX11" s="47">
+        <v>999</v>
+      </c>
+      <c r="AY11" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ11" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BA11" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB11" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="BC11" s="47"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" display="auto@mail.com"/>
-    <hyperlink ref="S2" r:id="rId2" display="auto12@mail.com"/>
+    <hyperlink ref="X2" r:id="rId1"/>
+    <hyperlink ref="AD2" r:id="rId2"/>
+    <hyperlink ref="X3" r:id="rId3"/>
+    <hyperlink ref="AD3" r:id="rId4"/>
+    <hyperlink ref="X5" r:id="rId5"/>
+    <hyperlink ref="AD5" r:id="rId6"/>
+    <hyperlink ref="X6" r:id="rId7"/>
+    <hyperlink ref="AD6" r:id="rId8"/>
+    <hyperlink ref="X4" r:id="rId9"/>
+    <hyperlink ref="AD4" r:id="rId10"/>
+    <hyperlink ref="X7" r:id="rId11"/>
+    <hyperlink ref="AD7" r:id="rId12"/>
+    <hyperlink ref="X8" r:id="rId13"/>
+    <hyperlink ref="AD8" r:id="rId14"/>
+    <hyperlink ref="X9" r:id="rId15"/>
+    <hyperlink ref="AD9" r:id="rId16"/>
+    <hyperlink ref="X10" r:id="rId17"/>
+    <hyperlink ref="AD10" r:id="rId18"/>
+    <hyperlink ref="X11" r:id="rId19"/>
+    <hyperlink ref="AD11" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15672" windowHeight="8976" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="8970" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="566">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1724,6 +1724,9 @@
   </si>
   <si>
     <t>ALLWOAGCO</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
   </si>
 </sst>
 </file>
@@ -2303,20 +2306,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2883,12 +2886,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2942,7 +2945,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -3220,18 +3223,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.77734375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>382</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>383</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>390</v>
       </c>
@@ -3311,7 +3314,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>384</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>385</v>
       </c>
@@ -3351,7 +3354,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>386</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>387</v>
       </c>
@@ -3404,26 +3407,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="24"/>
-    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="24"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3470,7 +3474,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>317</v>
       </c>
@@ -3513,17 +3517,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3541,24 +3545,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.21875" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.77734375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="24"/>
+    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3605,7 +3609,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>334</v>
       </c>
@@ -3646,7 +3650,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>340</v>
       </c>
@@ -3700,20 +3704,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>345</v>
       </c>
@@ -3804,14 +3808,14 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="75" max="75" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="75" max="75" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4218,7 +4222,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -4605,19 +4609,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5024,12 +5028,12 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>524</v>
@@ -5414,22 +5418,22 @@
       <selection activeCell="BR2" sqref="BR2:BR8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.42578125" customWidth="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" customWidth="1"/>
+    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5783,7 +5787,7 @@
       </c>
       <c r="DN1" s="4"/>
     </row>
-    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -6110,7 +6114,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -6947,7 +6951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -7226,7 +7230,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -7507,7 +7511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -7788,7 +7792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS9"/>
       <c r="CT9" t="s">
         <v>162</v>
@@ -7797,7 +7801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -7806,7 +7810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -7815,502 +7819,502 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -8327,17 +8331,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8372,7 +8376,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -8399,7 +8403,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -8451,7 +8455,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
@@ -8487,19 +8491,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8550,7 +8554,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -8601,7 +8605,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
@@ -8652,7 +8656,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
@@ -8703,7 +8707,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
@@ -8754,7 +8758,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
@@ -8818,13 +8822,13 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8844,7 +8848,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>258</v>
       </c>
@@ -8864,7 +8868,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
@@ -8895,12 +8899,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8929,7 +8933,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>264</v>
       </c>
@@ -8969,12 +8973,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8997,7 +9001,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
@@ -9020,7 +9024,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -9041,7 +9045,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>274</v>
       </c>
@@ -9073,14 +9077,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9100,7 +9104,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -9120,7 +9124,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
@@ -9149,39 +9153,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BD1" sqref="BD1:DS1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
@@ -9348,7 +9352,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>538</v>
       </c>
@@ -9509,7 +9513,7 @@
       </c>
       <c r="BC2" s="47"/>
     </row>
-    <row r="3" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>546</v>
       </c>
@@ -9668,7 +9672,7 @@
       <c r="BB3" s="47"/>
       <c r="BC3" s="47"/>
     </row>
-    <row r="4" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>548</v>
       </c>
@@ -9827,7 +9831,7 @@
       <c r="BB4" s="47"/>
       <c r="BC4" s="47"/>
     </row>
-    <row r="5" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>550</v>
       </c>
@@ -9988,7 +9992,7 @@
       </c>
       <c r="BC5" s="47"/>
     </row>
-    <row r="6" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>553</v>
       </c>
@@ -10149,7 +10153,7 @@
       </c>
       <c r="BC6" s="47"/>
     </row>
-    <row r="7" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>555</v>
       </c>
@@ -10310,7 +10314,7 @@
       </c>
       <c r="BC7" s="47"/>
     </row>
-    <row r="8" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>557</v>
       </c>
@@ -10471,7 +10475,7 @@
       </c>
       <c r="BC8" s="47"/>
     </row>
-    <row r="9" spans="1:55" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>559</v>
       </c>
@@ -10630,7 +10634,7 @@
       <c r="BB9" s="47"/>
       <c r="BC9" s="47"/>
     </row>
-    <row r="10" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>561</v>
       </c>
@@ -10789,7 +10793,7 @@
       <c r="BB10" s="47"/>
       <c r="BC10" s="47"/>
     </row>
-    <row r="11" spans="1:55" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>563</v>
       </c>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="568">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1727,6 +1727,12 @@
   </si>
   <si>
     <t>http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
+  </si>
+  <si>
+    <t>WalletPlancode</t>
+  </si>
+  <si>
+    <t>WalletPlanDescription</t>
   </si>
 </sst>
 </file>
@@ -4607,10 +4613,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EE2"/>
+  <dimension ref="A1:EG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="DP1" workbookViewId="0">
+      <selection activeCell="ED1" sqref="ED1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4621,7 +4627,7 @@
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:137" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5022,13 +5028,19 @@
         <v>480</v>
       </c>
       <c r="ED1" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="EE1" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="EF1" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="EE1" s="36" t="s">
+      <c r="EG1" s="36" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:137" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>530</v>
       </c>
@@ -5398,10 +5410,12 @@
       <c r="EC2" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="ED2" s="42" t="s">
+      <c r="ED2" s="42"/>
+      <c r="EE2" s="42"/>
+      <c r="EF2" s="42" t="s">
         <v>519</v>
       </c>
-      <c r="EE2" s="41" t="s">
+      <c r="EG2" s="41" t="s">
         <v>520</v>
       </c>
     </row>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="580">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1733,6 +1733,42 @@
   </si>
   <si>
     <t>WalletPlanDescription</t>
+  </si>
+  <si>
+    <t>TC_Application_Upload_Credit</t>
+  </si>
+  <si>
+    <t>Credit[C}</t>
+  </si>
+  <si>
+    <t>10-2028</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Payment [1]</t>
+  </si>
+  <si>
+    <t>creditLimit</t>
+  </si>
+  <si>
+    <t>maxCreditLimit</t>
+  </si>
+  <si>
+    <t>cashLimitType</t>
+  </si>
+  <si>
+    <t>cashLimitAmount</t>
+  </si>
+  <si>
+    <t>cashLimitReset</t>
+  </si>
+  <si>
+    <t>addOnLimitReset</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +1943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2001,6 +2037,7 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4613,10 +4650,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EG2"/>
+  <dimension ref="A1:EM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DP1" workbookViewId="0">
-      <selection activeCell="ED1" sqref="ED1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,9 +4662,10 @@
     <col min="2" max="2" width="83.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:143" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5037,10 +5075,28 @@
         <v>481</v>
       </c>
       <c r="EG1" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="EH1" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="EI1" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="EJ1" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="EK1" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="EL1" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="EM1" s="36" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:137" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>530</v>
       </c>
@@ -5415,7 +5471,410 @@
       <c r="EF2" s="42" t="s">
         <v>519</v>
       </c>
-      <c r="EG2" s="41" t="s">
+      <c r="EG2" s="42"/>
+      <c r="EH2" s="42"/>
+      <c r="EI2" s="42"/>
+      <c r="EJ2" s="42"/>
+      <c r="EK2" s="42"/>
+      <c r="EL2" s="42"/>
+      <c r="EM2" s="41" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:143" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="U3" s="11">
+        <v>50</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>1989</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM3" s="14">
+        <v>12345678</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB3" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="BD3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE3" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="BF3" s="12">
+        <v>12</v>
+      </c>
+      <c r="BG3" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="BH3" s="12">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM3" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="BN3" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR3" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="BS3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT3" s="12">
+        <v>12345678</v>
+      </c>
+      <c r="BU3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV3" s="12">
+        <v>12345678</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>504</v>
+      </c>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="BZ3" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="CA3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB3" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="CC3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="CD3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="CE3" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="CF3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="CG3" s="12"/>
+      <c r="CH3" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="CI3" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="CJ3" s="40"/>
+      <c r="CK3" s="40"/>
+      <c r="CL3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="CM3" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="CN3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="CO3" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="CP3" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="CQ3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="CR3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="CS3" s="51" t="s">
+        <v>570</v>
+      </c>
+      <c r="CT3" s="11"/>
+      <c r="CU3" s="11"/>
+      <c r="CV3" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="CW3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="CX3" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="CY3" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="CZ3" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="DA3" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="DB3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="DC3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="DD3" s="12"/>
+      <c r="DE3" s="12"/>
+      <c r="DF3" s="12"/>
+      <c r="DG3" s="12"/>
+      <c r="DH3" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="DI3" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="DJ3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="DK3" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="DL3" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="DM3" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="DN3" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="DO3" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="DP3" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="DQ3" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="DR3" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="DS3" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="DT3" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="DU3" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="DV3" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="DW3" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="DX3" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="DY3" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="DZ3" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="EA3" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="EB3" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="EC3" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="ED3" s="42"/>
+      <c r="EE3" s="42"/>
+      <c r="EF3" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="EG3" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="EH3" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="EI3" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="EJ3" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="EK3" s="42" t="s">
+        <v>572</v>
+      </c>
+      <c r="EL3" s="42" t="s">
+        <v>572</v>
+      </c>
+      <c r="EM3" s="42" t="s">
         <v>520</v>
       </c>
     </row>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4652,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
+      <selection activeCell="CP3" sqref="CP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5359,7 +5359,7 @@
         <v>502</v>
       </c>
       <c r="CP2" s="40" t="s">
-        <v>355</v>
+        <v>492</v>
       </c>
       <c r="CQ2" s="11" t="s">
         <v>48</v>
@@ -5744,7 +5744,7 @@
         <v>502</v>
       </c>
       <c r="CP3" s="40" t="s">
-        <v>355</v>
+        <v>492</v>
       </c>
       <c r="CQ3" s="11" t="s">
         <v>48</v>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="581">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1769,6 +1769,9 @@
   </si>
   <si>
     <t>http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login</t>
+  </si>
+  <si>
+    <t>1000000000</t>
   </si>
 </sst>
 </file>
@@ -4652,13 +4655,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="CP3" sqref="CP3"/>
+    <sheetView tabSelected="1" topLeftCell="DL1" workbookViewId="0">
+      <selection activeCell="EG6" sqref="EG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -5860,7 +5863,7 @@
         <v>412</v>
       </c>
       <c r="EH3" s="42" t="s">
-        <v>411</v>
+        <v>580</v>
       </c>
       <c r="EI3" s="42" t="s">
         <v>51</v>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4652,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="CP3" sqref="CP3"/>
+    <sheetView tabSelected="1" topLeftCell="DL1" workbookViewId="0">
+      <selection activeCell="EB13" sqref="EB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="8970" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15672" windowHeight="8976" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="587">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1769,6 +1769,27 @@
   </si>
   <si>
     <t>http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login</t>
+  </si>
+  <si>
+    <t>HighRiskCountry</t>
+  </si>
+  <si>
+    <t>TaxOnIncomeFeeType</t>
+  </si>
+  <si>
+    <t>TaxOnIncomeStatus</t>
+  </si>
+  <si>
+    <t>MccCode</t>
+  </si>
+  <si>
+    <t>CANADA [124]</t>
+  </si>
+  <si>
+    <t>Loan Processing Fee [44]</t>
+  </si>
+  <si>
+    <t>Accounting, Auditing, and Bookkeeping Services [8931]</t>
   </si>
 </sst>
 </file>
@@ -2349,20 +2370,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="13" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2553,7 +2574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2740,7 +2761,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2929,12 +2950,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2988,7 +3009,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -3041,7 +3062,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -3094,7 +3115,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -3147,7 +3168,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -3200,7 +3221,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -3266,18 +3287,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3297,7 +3318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>382</v>
       </c>
@@ -3317,7 +3338,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>383</v>
       </c>
@@ -3337,7 +3358,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>390</v>
       </c>
@@ -3357,7 +3378,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>384</v>
       </c>
@@ -3377,7 +3398,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>385</v>
       </c>
@@ -3397,7 +3418,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>386</v>
       </c>
@@ -3417,7 +3438,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>387</v>
       </c>
@@ -3450,27 +3471,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="24"/>
-    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="24"/>
+    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="24"/>
+    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.109375" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3517,7 +3538,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>317</v>
       </c>
@@ -3560,17 +3581,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3588,24 +3609,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="24"/>
+    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3652,7 +3673,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>334</v>
       </c>
@@ -3693,7 +3714,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>340</v>
       </c>
@@ -3747,20 +3768,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3795,7 +3816,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>345</v>
       </c>
@@ -3851,14 +3872,14 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="75" max="75" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="75" max="75" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4265,7 +4286,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -4652,20 +4673,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DL1" workbookViewId="0">
+    <sheetView topLeftCell="DL1" workbookViewId="0">
       <selection activeCell="EB13" sqref="EB13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:143" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:143" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5096,7 +5117,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:143" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>530</v>
       </c>
@@ -5481,7 +5502,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:143" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>568</v>
       </c>
@@ -5891,22 +5912,22 @@
       <selection activeCell="BR2" sqref="BR2:BR8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.42578125" customWidth="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" customWidth="1"/>
-    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.44140625" customWidth="1"/>
+    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6260,7 +6281,7 @@
       </c>
       <c r="DN1" s="4"/>
     </row>
-    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -6587,7 +6608,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -6866,7 +6887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -7145,7 +7166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -7424,7 +7445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -7703,7 +7724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -7984,7 +8005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -8265,7 +8286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS9"/>
       <c r="CT9" t="s">
         <v>162</v>
@@ -8274,7 +8295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -8283,7 +8304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -8292,502 +8313,502 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -8804,17 +8825,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8849,7 +8870,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -8876,7 +8897,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -8907,7 +8928,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -8928,7 +8949,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
@@ -8964,19 +8985,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" customWidth="1"/>
+    <col min="18" max="18" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9027,7 +9048,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -9078,7 +9099,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
@@ -9129,7 +9150,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
@@ -9180,7 +9201,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
@@ -9231,7 +9252,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
@@ -9295,13 +9316,13 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9321,7 +9342,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>258</v>
       </c>
@@ -9341,7 +9362,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
@@ -9372,12 +9393,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9406,7 +9427,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>264</v>
       </c>
@@ -9446,12 +9467,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9474,7 +9495,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
@@ -9497,7 +9518,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -9518,7 +9539,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>274</v>
       </c>
@@ -9550,14 +9571,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9577,7 +9598,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -9597,7 +9618,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
@@ -9624,41 +9645,43 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC11"/>
+  <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1:DS1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BC10" sqref="BC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
@@ -9824,8 +9847,20 @@
       <c r="BC1" s="45" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>538</v>
       </c>
@@ -9985,8 +10020,20 @@
         <v>545</v>
       </c>
       <c r="BC2" s="47"/>
-    </row>
-    <row r="3" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD2" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>546</v>
       </c>
@@ -10144,8 +10191,20 @@
       </c>
       <c r="BB3" s="47"/>
       <c r="BC3" s="47"/>
-    </row>
-    <row r="4" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD3" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>548</v>
       </c>
@@ -10303,8 +10362,20 @@
       </c>
       <c r="BB4" s="47"/>
       <c r="BC4" s="47"/>
-    </row>
-    <row r="5" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD4" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BE4" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>550</v>
       </c>
@@ -10464,8 +10535,20 @@
         <v>552</v>
       </c>
       <c r="BC5" s="47"/>
-    </row>
-    <row r="6" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD5" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>553</v>
       </c>
@@ -10625,8 +10708,20 @@
         <v>545</v>
       </c>
       <c r="BC6" s="47"/>
-    </row>
-    <row r="7" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD6" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BE6" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BF6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG6" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>555</v>
       </c>
@@ -10786,8 +10881,20 @@
         <v>545</v>
       </c>
       <c r="BC7" s="47"/>
-    </row>
-    <row r="8" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD7" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BE7" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BF7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG7" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>557</v>
       </c>
@@ -10947,8 +11054,20 @@
         <v>545</v>
       </c>
       <c r="BC8" s="47"/>
-    </row>
-    <row r="9" spans="1:55" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD8" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BE8" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BF8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG8" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>559</v>
       </c>
@@ -11106,8 +11225,20 @@
       </c>
       <c r="BB9" s="47"/>
       <c r="BC9" s="47"/>
-    </row>
-    <row r="10" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD9" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BE9" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BF9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG9" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>561</v>
       </c>
@@ -11265,8 +11396,20 @@
       </c>
       <c r="BB10" s="47"/>
       <c r="BC10" s="47"/>
-    </row>
-    <row r="11" spans="1:55" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD10" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BE10" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BF10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG10" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>563</v>
       </c>
@@ -11426,6 +11569,18 @@
         <v>545</v>
       </c>
       <c r="BC11" s="47"/>
+      <c r="BD11" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BE11" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BF11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG11" s="9" t="s">
+        <v>586</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -24,12 +24,12 @@
     <sheet name="LoyaltyPlan" sheetId="16" r:id="rId15"/>
     <sheet name="Prepaid_Application_Upload" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="595">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1790,6 +1790,30 @@
   </si>
   <si>
     <t>Accounting, Auditing, and Bookkeeping Services [8931]</t>
+  </si>
+  <si>
+    <t>HolidayType</t>
+  </si>
+  <si>
+    <t>LoanType</t>
+  </si>
+  <si>
+    <t>DraftNeeded</t>
+  </si>
+  <si>
+    <t>LoanTypeCreditLimit</t>
+  </si>
+  <si>
+    <t>LoanTypeCashLimit</t>
+  </si>
+  <si>
+    <t>Holiday [H]</t>
+  </si>
+  <si>
+    <t>Loan below credit limit [LOANCR]</t>
+  </si>
+  <si>
+    <t>Retail Transaction to Loan [LOANPUR]</t>
   </si>
 </sst>
 </file>
@@ -9645,10 +9669,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG11"/>
+  <dimension ref="A1:BL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BC10" sqref="BC10"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BK3" sqref="BK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9679,9 +9703,10 @@
     <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="46" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
@@ -9859,8 +9884,23 @@
       <c r="BG1" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="2" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BH1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>538</v>
       </c>
@@ -10032,8 +10072,23 @@
       <c r="BG2" s="9" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="3" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BH2" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>546</v>
       </c>
@@ -10203,8 +10258,23 @@
       <c r="BG3" s="9" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="4" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BH3" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>548</v>
       </c>
@@ -10374,8 +10444,23 @@
       <c r="BG4" s="9" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="5" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BH4" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BK4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>550</v>
       </c>
@@ -10547,8 +10632,23 @@
       <c r="BG5" s="9" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="6" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BH5" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>553</v>
       </c>
@@ -10720,8 +10820,23 @@
       <c r="BG6" s="9" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="7" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BH6" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BI6" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BJ6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BK6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>555</v>
       </c>
@@ -10893,8 +11008,23 @@
       <c r="BG7" s="9" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="8" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BH7" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BI7" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BJ7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BK7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL7" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>557</v>
       </c>
@@ -11066,8 +11196,23 @@
       <c r="BG8" s="9" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="9" spans="1:59" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BH8" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BI8" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BJ8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BK8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL8" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>559</v>
       </c>
@@ -11237,8 +11382,23 @@
       <c r="BG9" s="9" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="10" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BH9" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BI9" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BJ9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BK9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL9" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>561</v>
       </c>
@@ -11408,8 +11568,23 @@
       <c r="BG10" s="9" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="11" spans="1:59" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BH10" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BI10" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BJ10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BK10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL10" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>563</v>
       </c>
@@ -11580,6 +11755,21 @@
       </c>
       <c r="BG11" s="9" t="s">
         <v>586</v>
+      </c>
+      <c r="BH11" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BI11" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BJ11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BK11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL11" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="598">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1814,6 +1814,15 @@
   </si>
   <si>
     <t>Retail Transaction to Loan [LOANPUR]</t>
+  </si>
+  <si>
+    <t>ProgramWalletPromotion</t>
+  </si>
+  <si>
+    <t>DefaultLoanPlan</t>
+  </si>
+  <si>
+    <t>Program [0]</t>
   </si>
 </sst>
 </file>
@@ -9669,10 +9678,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL11"/>
+  <dimension ref="A1:BN11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BK3" sqref="BK3"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BM1" sqref="BM1:BN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9704,9 +9713,11 @@
     <col min="55" max="55" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="46" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
@@ -9899,8 +9910,14 @@
       <c r="BL1" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="2" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BM1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>538</v>
       </c>
@@ -10087,8 +10104,14 @@
       <c r="BL2" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BM2" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BN2" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>546</v>
       </c>
@@ -10273,8 +10296,14 @@
       <c r="BL3" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="4" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BM3" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BN3" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>548</v>
       </c>
@@ -10459,8 +10488,14 @@
       <c r="BL4" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="5" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BM4" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BN4" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>550</v>
       </c>
@@ -10647,8 +10682,14 @@
       <c r="BL5" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="6" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BM5" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BN5" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>553</v>
       </c>
@@ -10835,8 +10876,14 @@
       <c r="BL6" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="7" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BM6" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BN6" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>555</v>
       </c>
@@ -11023,8 +11070,14 @@
       <c r="BL7" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="8" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BM7" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BN7" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>557</v>
       </c>
@@ -11211,8 +11264,14 @@
       <c r="BL8" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="9" spans="1:64" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BM8" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BN8" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>559</v>
       </c>
@@ -11397,8 +11456,14 @@
       <c r="BL9" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="10" spans="1:64" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BM9" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BN9" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>561</v>
       </c>
@@ -11583,8 +11648,14 @@
       <c r="BL10" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="11" spans="1:64" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BM10" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BN10" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>563</v>
       </c>
@@ -11769,6 +11840,12 @@
         <v>230</v>
       </c>
       <c r="BL11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BM11" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BN11" s="47" t="s">
         <v>230</v>
       </c>
     </row>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="8970" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="8970" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="615">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1817,6 +1817,63 @@
   </si>
   <si>
     <t>WIBMO [002]</t>
+  </si>
+  <si>
+    <t>AccountRangeFrom</t>
+  </si>
+  <si>
+    <t>AccountRangeTo</t>
+  </si>
+  <si>
+    <t>currencyCodeTxt</t>
+  </si>
+  <si>
+    <t>monthlyLimitTxt</t>
+  </si>
+  <si>
+    <t>monthlyVelocityTxt</t>
+  </si>
+  <si>
+    <t>yearlyLimitTxt</t>
+  </si>
+  <si>
+    <t>yearlyVelocityTxt</t>
+  </si>
+  <si>
+    <t>comparisonOperator</t>
+  </si>
+  <si>
+    <t>ruleCode</t>
+  </si>
+  <si>
+    <t>ruleValue</t>
+  </si>
+  <si>
+    <t>APILInkingUserID</t>
+  </si>
+  <si>
+    <t>525252523612345</t>
+  </si>
+  <si>
+    <t>525252523692345</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000</t>
+  </si>
+  <si>
+    <t>= [=]</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -5909,10 +5966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN177"/>
+  <dimension ref="A1:DY177"/>
   <sheetViews>
-    <sheetView topLeftCell="BH6" workbookViewId="0">
-      <selection activeCell="BR2" sqref="BR2:BR8"/>
+    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
+      <selection activeCell="DO1" sqref="DO1:DY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5930,7 +5987,7 @@
     <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6283,8 +6340,41 @@
         <v>434</v>
       </c>
       <c r="DN1" s="4"/>
-    </row>
-    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="DO1" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="DR1" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="DS1" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="DT1" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="DU1" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="DV1" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="DW1" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="DX1" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="DY1" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:129" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -6610,8 +6700,41 @@
       <c r="DM2" s="9" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="DO2" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="DP2" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="DQ2" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="DR2" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="DS2" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="DT2" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="DU2" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="DV2" s="49" t="s">
+        <v>613</v>
+      </c>
+      <c r="DW2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="DX2" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="DY2" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:129" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -6890,7 +7013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:129" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -7169,7 +7292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -7448,7 +7571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:129" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -7727,7 +7850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:129" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -8008,7 +8131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:129" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -8289,7 +8412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:129" x14ac:dyDescent="0.25">
       <c r="CS9"/>
       <c r="CT9" t="s">
         <v>162</v>
@@ -8298,7 +8421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:129" x14ac:dyDescent="0.25">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -8307,7 +8430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:129" x14ac:dyDescent="0.25">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -8316,19 +8439,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:129" x14ac:dyDescent="0.25">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:129" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:129" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:129" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:129" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
     <row r="17" spans="97:97" x14ac:dyDescent="0.25">
@@ -9650,8 +9773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15672" windowHeight="8976" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="LoyaltyPlan" sheetId="16" r:id="rId15"/>
     <sheet name="Prepaid_Application_Upload" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="698">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1823,6 +1823,306 @@
   </si>
   <si>
     <t>Program [0]</t>
+  </si>
+  <si>
+    <t>Padding</t>
+  </si>
+  <si>
+    <t>InstitutionCode</t>
+  </si>
+  <si>
+    <t>Abbrevation</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>555522</t>
+  </si>
+  <si>
+    <t>AUTHREG</t>
+  </si>
+  <si>
+    <t>GeneralisationMethod</t>
+  </si>
+  <si>
+    <t>PINlength</t>
+  </si>
+  <si>
+    <t>PVVOffset</t>
+  </si>
+  <si>
+    <t>PVKOffset</t>
+  </si>
+  <si>
+    <t>PINValidationData</t>
+  </si>
+  <si>
+    <t>PINVerificationKey</t>
+  </si>
+  <si>
+    <t>PINVerificationKeyCheck</t>
+  </si>
+  <si>
+    <t>CVVOffsetOnTrack</t>
+  </si>
+  <si>
+    <t>ComponentType</t>
+  </si>
+  <si>
+    <t>CVKACryptogram</t>
+  </si>
+  <si>
+    <t>CVKAKeyCheck</t>
+  </si>
+  <si>
+    <t>CVKBCryptogram</t>
+  </si>
+  <si>
+    <t>CVKBKeyCheck</t>
+  </si>
+  <si>
+    <t>CVV3Cryptogram</t>
+  </si>
+  <si>
+    <t>CVV3KeyCheckvalue</t>
+  </si>
+  <si>
+    <t>ATCOffsetOnTrack</t>
+  </si>
+  <si>
+    <t>UNOffsetOnTrack</t>
+  </si>
+  <si>
+    <t>CVC3OffsetOnTrack</t>
+  </si>
+  <si>
+    <t>NetworkInterface</t>
+  </si>
+  <si>
+    <t>KeyType</t>
+  </si>
+  <si>
+    <t>NetworkCryptogram</t>
+  </si>
+  <si>
+    <t>NetworkCryptogramCheckValue</t>
+  </si>
+  <si>
+    <t>MDKEncryptedUnderLMK</t>
+  </si>
+  <si>
+    <t>MDKKeyCheckValue</t>
+  </si>
+  <si>
+    <t>SMIEncryptedUnderLMKTxt</t>
+  </si>
+  <si>
+    <t>SMIKeyCheckvalues</t>
+  </si>
+  <si>
+    <t>SMCEncryptedUnderLMKTxt</t>
+  </si>
+  <si>
+    <t>SMCKeyCheckvalue</t>
+  </si>
+  <si>
+    <t>MDKKeyType</t>
+  </si>
+  <si>
+    <t>MDKInterchangeType</t>
+  </si>
+  <si>
+    <t>MDKStatus</t>
+  </si>
+  <si>
+    <t>AccountRangeFrom</t>
+  </si>
+  <si>
+    <t>AccountRangeTo</t>
+  </si>
+  <si>
+    <t>currencyCodeTxt</t>
+  </si>
+  <si>
+    <t>monthlyLimitTxt</t>
+  </si>
+  <si>
+    <t>monthlyVelocityTxt</t>
+  </si>
+  <si>
+    <t>yearlyLimitTxt</t>
+  </si>
+  <si>
+    <t>yearlyVelocityTxt</t>
+  </si>
+  <si>
+    <t>comparisonOperator</t>
+  </si>
+  <si>
+    <t>ruleCode</t>
+  </si>
+  <si>
+    <t>ruleValue</t>
+  </si>
+  <si>
+    <t>APILInkingUserID</t>
+  </si>
+  <si>
+    <t>IBM Method [3]</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1234567890123456</t>
+  </si>
+  <si>
+    <t>181CFD03C3F7385FCA36BF63DDD4BD01</t>
+  </si>
+  <si>
+    <t>829DD2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1-Single Component [1]</t>
+  </si>
+  <si>
+    <t>4A43436017024880</t>
+  </si>
+  <si>
+    <t>0EBBE7</t>
+  </si>
+  <si>
+    <t>B4638CBCEC1E6E52</t>
+  </si>
+  <si>
+    <t>985BDD</t>
+  </si>
+  <si>
+    <t>7B634E89DB88BBD9BB33C702FD1C9151</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>MasterCard(CIS) [03]</t>
+  </si>
+  <si>
+    <t>ZMK [6]</t>
+  </si>
+  <si>
+    <t>80F5706D510BF6F7D54D6DA3053CAB8A</t>
+  </si>
+  <si>
+    <t>2A7944</t>
+  </si>
+  <si>
+    <t>E60699F5B9ADE145FF6B0281D6FF7A71</t>
+  </si>
+  <si>
+    <t>2BC1FE</t>
+  </si>
+  <si>
+    <t>3B84D3C46E096114BF1A505A548A88AE</t>
+  </si>
+  <si>
+    <t>55AF3C</t>
+  </si>
+  <si>
+    <t>6B9D441DA33CF04F687C085A0CD9D8F8</t>
+  </si>
+  <si>
+    <t>9855B6</t>
+  </si>
+  <si>
+    <t>MDK Key [00]</t>
+  </si>
+  <si>
+    <t>INR:USD:LKR</t>
+  </si>
+  <si>
+    <t>525252523612345</t>
+  </si>
+  <si>
+    <t>525252523692345</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000</t>
+  </si>
+  <si>
+    <t>= [=]</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>InstitutionLoadCurrency</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login?0</t>
+  </si>
+  <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>BLACKEYEFD [576771]</t>
+  </si>
+  <si>
+    <t>EMBF6000</t>
+  </si>
+  <si>
+    <t>VEN6000</t>
+  </si>
+  <si>
+    <t>HDFCVendor01 [VEN6000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yerwada Pune </t>
+  </si>
+  <si>
+    <t>June/1/2033</t>
+  </si>
+  <si>
+    <t>235689</t>
+  </si>
+  <si>
+    <t>Amex Credit</t>
+  </si>
+  <si>
+    <t>Sequence number</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Program Code</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Active [0]</t>
+  </si>
+  <si>
+    <t>AmexInstitutionSetup</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +2297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2092,6 +2392,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2403,20 +2707,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2607,7 +2911,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2794,7 +3098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2983,12 +3287,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -3042,7 +3346,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -3095,7 +3399,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -3148,7 +3452,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -3201,7 +3505,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -3254,7 +3558,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -3320,18 +3624,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3351,7 +3655,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>382</v>
       </c>
@@ -3371,7 +3675,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>383</v>
       </c>
@@ -3391,7 +3695,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>390</v>
       </c>
@@ -3411,7 +3715,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>384</v>
       </c>
@@ -3431,7 +3735,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>385</v>
       </c>
@@ -3451,7 +3755,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>386</v>
       </c>
@@ -3471,7 +3775,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>387</v>
       </c>
@@ -3504,27 +3808,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="24"/>
-    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.109375" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="24"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3571,7 +3875,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>317</v>
       </c>
@@ -3614,17 +3918,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3642,24 +3946,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="24"/>
+    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3706,7 +4010,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>334</v>
       </c>
@@ -3747,7 +4051,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>340</v>
       </c>
@@ -3801,20 +4105,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3849,7 +4153,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>345</v>
       </c>
@@ -3905,14 +4209,14 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="75" max="75" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="75" max="75" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4319,7 +4623,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -4710,16 +5014,16 @@
       <selection activeCell="EB13" sqref="EB13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:143" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:143" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5150,7 +5454,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>530</v>
       </c>
@@ -5535,7 +5839,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>568</v>
       </c>
@@ -5939,28 +6243,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN177"/>
+  <dimension ref="A1:FD177"/>
   <sheetViews>
-    <sheetView topLeftCell="BH6" workbookViewId="0">
-      <selection activeCell="BR2" sqref="BR2:BR8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.42578125" customWidth="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" customWidth="1"/>
+    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:160" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6312,9 +6616,137 @@
       <c r="DM1" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="DN1" s="4"/>
-    </row>
-    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="DN1" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="DR1" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="DS1" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="DT1" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="DU1" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="DV1" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="DW1" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="DX1" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="DY1" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="DZ1" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="EA1" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="EB1" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="EC1" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="ED1" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="EE1" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="EF1" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="EG1" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="EH1" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="EI1" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="EK1" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="EL1" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="EM1" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="EN1" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="EO1" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="EP1" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="EQ1" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="ER1" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="ES1" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="ET1" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="EU1" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="EV1" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="EW1" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="EX1" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="EY1" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="EZ1" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="FA1" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="FB1" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="FC1" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="FD1" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:160" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -6640,8 +7072,133 @@
       <c r="DM2" s="9" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="DN2" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="DO2" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DP2" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="DQ2" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="DR2" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="DS2" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="DT2" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="DU2" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="DV2" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="DW2" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="DX2" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="DY2" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="DZ2" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="EA2" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="EB2" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="EC2" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="ED2" s="9">
+        <v>1</v>
+      </c>
+      <c r="EE2" s="9">
+        <v>1</v>
+      </c>
+      <c r="EF2" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="EG2" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="EH2" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="EI2" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="EJ2" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="EK2" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="EL2" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="EM2" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="EN2" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="EO2" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="EP2" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="EQ2" s="9"/>
+      <c r="ER2" s="9"/>
+      <c r="ES2" s="52" t="s">
+        <v>672</v>
+      </c>
+      <c r="ET2" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="EU2" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="EV2" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="EW2" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="EX2" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="EY2" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="EZ2" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="FA2" s="53" t="s">
+        <v>679</v>
+      </c>
+      <c r="FB2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="FC2" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="FD2" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:160" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -6920,7 +7477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:160" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -7199,7 +7756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:160" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -7478,7 +8035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:160" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -7757,7 +8314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:160" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -8038,7 +8595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:160" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -8319,16 +8876,421 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="CS9"/>
-      <c r="CT9" t="s">
-        <v>162</v>
-      </c>
-      <c r="CU9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:160" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>682</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="U9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="W9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC9" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG9" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="AN9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO9" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP9" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ9" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR9" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="AS9" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="AT9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU9" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="AV9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY9" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="AZ9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB9" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="BC9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD9" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="BE9" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF9" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="BG9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ9" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="BK9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP9" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="BX9" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY9" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="BZ9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CA9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CC9" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="CF9" s="28"/>
+      <c r="CG9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH9" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="CI9" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CJ9" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="CK9" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="CL9" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="CP9" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="CQ9" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="CR9" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="CS9" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="CT9" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CU9" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="CV9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="CW9" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="CX9" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="CY9" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="CZ9" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="DA9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="DB9" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="DC9" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="DD9" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="DE9" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="DF9" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="DG9" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="DH9" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="DI9" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="DJ9" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="DK9" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="DL9" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="DM9" s="53" t="s">
+        <v>648</v>
+      </c>
+      <c r="DN9" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="DO9" s="53" t="s">
+        <v>649</v>
+      </c>
+      <c r="DP9" s="54" t="s">
+        <v>650</v>
+      </c>
+      <c r="DQ9" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="DR9" s="54" t="s">
+        <v>652</v>
+      </c>
+      <c r="DS9" s="54" t="s">
+        <v>653</v>
+      </c>
+      <c r="DT9" s="54" t="s">
+        <v>654</v>
+      </c>
+      <c r="DU9" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="DV9" s="54" t="s">
+        <v>656</v>
+      </c>
+      <c r="DW9" s="54" t="s">
+        <v>657</v>
+      </c>
+      <c r="DX9" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="DY9" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="DZ9" s="54" t="s">
+        <v>660</v>
+      </c>
+      <c r="EA9" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="EB9" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="EC9" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="ED9" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="EE9" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="EF9" s="53" t="s">
+        <v>663</v>
+      </c>
+      <c r="EG9" s="53" t="s">
+        <v>664</v>
+      </c>
+      <c r="EH9" s="53" t="s">
+        <v>665</v>
+      </c>
+      <c r="EI9" s="53" t="s">
+        <v>666</v>
+      </c>
+      <c r="EJ9" s="53" t="s">
+        <v>667</v>
+      </c>
+      <c r="EK9" s="53" t="s">
+        <v>668</v>
+      </c>
+      <c r="EL9" s="53" t="s">
+        <v>669</v>
+      </c>
+      <c r="EM9" s="53" t="s">
+        <v>670</v>
+      </c>
+      <c r="EN9" s="55" t="s">
+        <v>671</v>
+      </c>
+      <c r="EO9" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="EP9" s="55" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -8337,7 +9299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -8346,502 +9308,502 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -8858,17 +9820,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8903,7 +9865,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -8930,7 +9892,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -8961,7 +9923,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -8982,7 +9944,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
@@ -9018,19 +9980,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9081,7 +10043,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -9132,7 +10094,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
@@ -9183,7 +10145,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
@@ -9234,7 +10196,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
@@ -9285,7 +10247,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
@@ -9349,13 +10311,13 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9375,7 +10337,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>258</v>
       </c>
@@ -9395,7 +10357,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
@@ -9426,12 +10388,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9460,7 +10422,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>264</v>
       </c>
@@ -9500,12 +10462,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9528,7 +10490,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
@@ -9551,7 +10513,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -9572,7 +10534,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>274</v>
       </c>
@@ -9604,14 +10566,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9631,7 +10593,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -9651,7 +10613,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
@@ -9678,457 +10640,467 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN11"/>
+  <dimension ref="A1:BQ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BM1" sqref="BM1:BN11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="46" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.5703125" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="46" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="I1" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="J1" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="L1" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="M1" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="N1" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="O1" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="P1" s="45" t="s">
         <v>358</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="Q1" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="R1" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="S1" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="T1" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="U1" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="V1" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="W1" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="X1" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="Y1" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="Z1" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="X1" s="45" t="s">
+      <c r="AA1" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="Y1" s="45" t="s">
+      <c r="AB1" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="Z1" s="45" t="s">
+      <c r="AC1" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="AA1" s="45" t="s">
+      <c r="AD1" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="AB1" s="45" t="s">
+      <c r="AE1" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="AC1" s="45" t="s">
+      <c r="AF1" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="AD1" s="45" t="s">
+      <c r="AG1" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="AE1" s="45" t="s">
+      <c r="AH1" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="AF1" s="45" t="s">
+      <c r="AI1" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="AG1" s="45" t="s">
+      <c r="AJ1" s="45" t="s">
         <v>359</v>
       </c>
-      <c r="AH1" s="45" t="s">
+      <c r="AK1" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="AI1" s="45" t="s">
+      <c r="AL1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="45" t="s">
+      <c r="AM1" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="AK1" s="45" t="s">
+      <c r="AN1" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="AL1" s="45" t="s">
+      <c r="AO1" s="45" t="s">
         <v>361</v>
       </c>
-      <c r="AM1" s="45" t="s">
+      <c r="AP1" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="AN1" s="45" t="s">
+      <c r="AQ1" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="AO1" s="45" t="s">
+      <c r="AR1" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="AP1" s="45" t="s">
+      <c r="AS1" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="AQ1" s="45" t="s">
+      <c r="AT1" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="AR1" s="45" t="s">
+      <c r="AU1" s="45" t="s">
         <v>367</v>
       </c>
-      <c r="AS1" s="45" t="s">
+      <c r="AV1" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="AT1" s="45" t="s">
+      <c r="AW1" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="AU1" s="45" t="s">
+      <c r="AX1" s="45" t="s">
         <v>370</v>
       </c>
-      <c r="AV1" s="45" t="s">
+      <c r="AY1" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="AW1" s="45" t="s">
+      <c r="AZ1" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="AX1" s="45" t="s">
+      <c r="BA1" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="AY1" s="45" t="s">
+      <c r="BB1" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="AZ1" s="45" t="s">
+      <c r="BC1" s="45" t="s">
         <v>534</v>
       </c>
-      <c r="BA1" s="45" t="s">
+      <c r="BD1" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="BB1" s="45" t="s">
+      <c r="BE1" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="BC1" s="45" t="s">
+      <c r="BF1" s="45" t="s">
         <v>537</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>538</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="G2" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="48" t="s">
+      <c r="H2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="47" t="s">
+      <c r="J2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="I2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2" s="47" t="s">
+      <c r="L2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M2" s="47" t="s">
+      <c r="N2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P2" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="Q2" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="R2" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="P2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q2" s="47">
+      <c r="S2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T2" s="47">
         <v>16</v>
       </c>
-      <c r="R2" s="47">
+      <c r="U2" s="47">
         <v>16</v>
       </c>
-      <c r="S2" s="47" t="s">
+      <c r="V2" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="T2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W2" s="47">
+      <c r="W2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z2" s="47">
         <v>1100440052</v>
       </c>
-      <c r="X2" s="47" t="s">
+      <c r="AA2" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="Y2" s="47">
+      <c r="AB2" s="47">
         <v>45665456</v>
       </c>
-      <c r="Z2" s="47" t="s">
+      <c r="AC2" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="AA2" s="47" t="s">
+      <c r="AD2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="47">
+      <c r="AE2" s="47">
         <v>1113332</v>
       </c>
-      <c r="AC2" s="47">
+      <c r="AF2" s="47">
         <v>23564589</v>
       </c>
-      <c r="AD2" s="49" t="s">
+      <c r="AG2" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="AE2" s="47" t="s">
+      <c r="AH2" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AF2" s="47" t="s">
+      <c r="AI2" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AG2" s="47" t="s">
+      <c r="AJ2" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AH2" s="47" t="s">
+      <c r="AK2" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AI2" s="47" t="s">
+      <c r="AL2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="47" t="s">
+      <c r="AM2" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AK2" s="47">
+      <c r="AN2" s="47">
         <v>411006</v>
       </c>
-      <c r="AL2" s="47">
+      <c r="AO2" s="47">
         <v>124421</v>
       </c>
-      <c r="AM2" s="47" t="s">
+      <c r="AP2" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="AN2" s="47" t="s">
+      <c r="AQ2" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="AO2" s="47" t="s">
+      <c r="AR2" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="AP2" s="47" t="s">
+      <c r="AS2" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47" t="s">
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="AT2" s="47" t="s">
+      <c r="AW2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="47">
+      <c r="AX2" s="47">
         <v>5431267812</v>
       </c>
-      <c r="AV2" s="47" t="s">
+      <c r="AY2" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="AW2" s="47" t="s">
+      <c r="AZ2" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="AX2" s="47">
+      <c r="BA2" s="47">
         <v>999</v>
       </c>
-      <c r="AY2" s="47" t="s">
+      <c r="BB2" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="AZ2" s="47" t="s">
+      <c r="BC2" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="BA2" s="47" t="s">
+      <c r="BD2" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="BB2" s="47" t="s">
+      <c r="BE2" s="47" t="s">
         <v>545</v>
       </c>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="9" t="s">
+      <c r="BF2" s="47"/>
+      <c r="BG2" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BH2" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BI2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BG2" s="9" t="s">
+      <c r="BJ2" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="BH2" s="9" t="s">
+      <c r="BK2" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="BI2" s="9" t="s">
+      <c r="BL2" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="BJ2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM2" s="47" t="s">
+      <c r="BM2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP2" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="BN2" s="47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BQ2" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>546</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>547</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>134</v>
+      <c r="C3" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="47" t="s">
+        <v>230</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>540</v>
@@ -10136,1159 +11108,1193 @@
       <c r="H3" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>230</v>
+      <c r="I3" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="J3" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M3" s="47" t="s">
+      <c r="N3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P3" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="Q3" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="R3" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="P3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q3" s="47">
+      <c r="S3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T3" s="47">
         <v>16</v>
       </c>
-      <c r="R3" s="47">
+      <c r="U3" s="47">
         <v>16</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="V3" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="T3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W3" s="47">
+      <c r="W3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z3" s="47">
         <v>1100440052</v>
       </c>
-      <c r="X3" s="47" t="s">
+      <c r="AA3" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="Y3" s="47">
+      <c r="AB3" s="47">
         <v>45665456</v>
       </c>
-      <c r="Z3" s="47" t="s">
+      <c r="AC3" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="AA3" s="47" t="s">
+      <c r="AD3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="47">
+      <c r="AE3" s="47">
         <v>1113332</v>
       </c>
-      <c r="AC3" s="47">
+      <c r="AF3" s="47">
         <v>23564589</v>
       </c>
-      <c r="AD3" s="49" t="s">
+      <c r="AG3" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AH3" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AF3" s="47" t="s">
+      <c r="AI3" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AG3" s="47" t="s">
+      <c r="AJ3" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AH3" s="47" t="s">
+      <c r="AK3" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AI3" s="47" t="s">
+      <c r="AL3" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" s="47" t="s">
+      <c r="AM3" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AK3" s="47">
+      <c r="AN3" s="47">
         <v>411006</v>
       </c>
-      <c r="AL3" s="47">
+      <c r="AO3" s="47">
         <v>124421</v>
       </c>
-      <c r="AM3" s="47" t="s">
+      <c r="AP3" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="AN3" s="47" t="s">
+      <c r="AQ3" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="AO3" s="47" t="s">
+      <c r="AR3" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="AP3" s="47" t="s">
+      <c r="AS3" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47" t="s">
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="AT3" s="47" t="s">
+      <c r="AW3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AU3" s="47">
+      <c r="AX3" s="47">
         <v>5431267812</v>
       </c>
-      <c r="AV3" s="47" t="s">
+      <c r="AY3" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="AW3" s="47" t="s">
+      <c r="AZ3" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="AX3" s="47">
+      <c r="BA3" s="47">
         <v>999</v>
       </c>
-      <c r="AY3" s="47" t="s">
+      <c r="BB3" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="AZ3" s="47" t="s">
+      <c r="BC3" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="BA3" s="47" t="s">
+      <c r="BD3" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="9" t="s">
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="BE3" s="9" t="s">
+      <c r="BH3" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="BF3" s="9" t="s">
+      <c r="BI3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BG3" s="9" t="s">
+      <c r="BJ3" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="BH3" s="9" t="s">
+      <c r="BK3" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="BI3" s="9" t="s">
+      <c r="BL3" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="BJ3" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK3" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL3" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM3" s="47" t="s">
+      <c r="BM3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP3" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="BN3" s="47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BQ3" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>548</v>
       </c>
       <c r="B4" s="47" t="s">
         <v>549</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="47" t="s">
+      <c r="G4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="I4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="J4" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="H4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="47" t="s">
+      <c r="K4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="M4" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M4" s="47" t="s">
+      <c r="N4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="Q4" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="R4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="P4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q4" s="47">
+      <c r="S4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T4" s="47">
         <v>16</v>
       </c>
-      <c r="R4" s="47">
+      <c r="U4" s="47">
         <v>16</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="V4" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="T4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W4" s="47">
+      <c r="W4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z4" s="47">
         <v>1100440052</v>
       </c>
-      <c r="X4" s="47" t="s">
+      <c r="AA4" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="Y4" s="47">
+      <c r="AB4" s="47">
         <v>45665456</v>
       </c>
-      <c r="Z4" s="47" t="s">
+      <c r="AC4" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="AA4" s="47" t="s">
+      <c r="AD4" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="47">
+      <c r="AE4" s="47">
         <v>1113332</v>
       </c>
-      <c r="AC4" s="47">
+      <c r="AF4" s="47">
         <v>23564589</v>
       </c>
-      <c r="AD4" s="49" t="s">
+      <c r="AG4" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="AE4" s="47" t="s">
+      <c r="AH4" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AF4" s="47" t="s">
+      <c r="AI4" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AG4" s="47" t="s">
+      <c r="AJ4" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AH4" s="47" t="s">
+      <c r="AK4" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AI4" s="47" t="s">
+      <c r="AL4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="47" t="s">
+      <c r="AM4" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AK4" s="47">
+      <c r="AN4" s="47">
         <v>411006</v>
       </c>
-      <c r="AL4" s="47">
+      <c r="AO4" s="47">
         <v>124421</v>
       </c>
-      <c r="AM4" s="47" t="s">
+      <c r="AP4" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="AN4" s="47" t="s">
+      <c r="AQ4" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="AO4" s="47" t="s">
+      <c r="AR4" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="AP4" s="47" t="s">
+      <c r="AS4" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47" t="s">
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="AT4" s="47" t="s">
+      <c r="AW4" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AU4" s="47">
+      <c r="AX4" s="47">
         <v>5431267812</v>
       </c>
-      <c r="AV4" s="47" t="s">
+      <c r="AY4" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="AW4" s="47" t="s">
+      <c r="AZ4" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="AX4" s="47">
+      <c r="BA4" s="47">
         <v>999</v>
       </c>
-      <c r="AY4" s="47" t="s">
+      <c r="BB4" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="AZ4" s="47" t="s">
+      <c r="BC4" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="BA4" s="47" t="s">
+      <c r="BD4" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="9" t="s">
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="BE4" s="9" t="s">
+      <c r="BH4" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="BF4" s="9" t="s">
+      <c r="BI4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BG4" s="9" t="s">
+      <c r="BJ4" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="BH4" s="9" t="s">
+      <c r="BK4" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="BI4" s="9" t="s">
+      <c r="BL4" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="BJ4" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK4" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL4" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM4" s="47" t="s">
+      <c r="BM4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP4" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="BN4" s="47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BQ4" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>550</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>551</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="48" t="s">
+      <c r="H5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" s="47" t="s">
+      <c r="J5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="I5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J5" s="47" t="s">
+      <c r="L5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="K5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M5" s="47" t="s">
+      <c r="N5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="Q5" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="R5" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="P5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q5" s="47">
+      <c r="S5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T5" s="47">
         <v>16</v>
       </c>
-      <c r="R5" s="47">
+      <c r="U5" s="47">
         <v>16</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="V5" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="T5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W5" s="47">
+      <c r="W5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z5" s="47">
         <v>1100440052</v>
       </c>
-      <c r="X5" s="47" t="s">
+      <c r="AA5" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="Y5" s="47">
+      <c r="AB5" s="47">
         <v>45665456</v>
       </c>
-      <c r="Z5" s="47" t="s">
+      <c r="AC5" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="AA5" s="47" t="s">
+      <c r="AD5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AB5" s="47">
+      <c r="AE5" s="47">
         <v>1113332</v>
       </c>
-      <c r="AC5" s="47">
+      <c r="AF5" s="47">
         <v>23564589</v>
       </c>
-      <c r="AD5" s="49" t="s">
+      <c r="AG5" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="AE5" s="47" t="s">
+      <c r="AH5" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AF5" s="47" t="s">
+      <c r="AI5" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AG5" s="47" t="s">
+      <c r="AJ5" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AH5" s="47" t="s">
+      <c r="AK5" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AI5" s="47" t="s">
+      <c r="AL5" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="47" t="s">
+      <c r="AM5" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AK5" s="47">
+      <c r="AN5" s="47">
         <v>411006</v>
       </c>
-      <c r="AL5" s="47">
+      <c r="AO5" s="47">
         <v>124421</v>
       </c>
-      <c r="AM5" s="47" t="s">
+      <c r="AP5" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="AN5" s="47" t="s">
+      <c r="AQ5" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="AO5" s="47" t="s">
+      <c r="AR5" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="AP5" s="47" t="s">
+      <c r="AS5" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47" t="s">
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="AT5" s="47" t="s">
+      <c r="AW5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AU5" s="47">
+      <c r="AX5" s="47">
         <v>5431267812</v>
       </c>
-      <c r="AV5" s="47" t="s">
+      <c r="AY5" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="AW5" s="47" t="s">
+      <c r="AZ5" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="AX5" s="47">
+      <c r="BA5" s="47">
         <v>999</v>
       </c>
-      <c r="AY5" s="47" t="s">
+      <c r="BB5" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="AZ5" s="47" t="s">
+      <c r="BC5" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="BA5" s="47" t="s">
+      <c r="BD5" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="BB5" s="47" t="s">
+      <c r="BE5" s="47" t="s">
         <v>552</v>
       </c>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="9" t="s">
+      <c r="BF5" s="47"/>
+      <c r="BG5" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="BE5" s="9" t="s">
+      <c r="BH5" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="BF5" s="9" t="s">
+      <c r="BI5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BG5" s="9" t="s">
+      <c r="BJ5" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="BH5" s="9" t="s">
+      <c r="BK5" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="BI5" s="9" t="s">
+      <c r="BL5" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="BJ5" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK5" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL5" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM5" s="47" t="s">
+      <c r="BM5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP5" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="BN5" s="47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BQ5" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>553</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="48" t="s">
+      <c r="G6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>230</v>
-      </c>
       <c r="J6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M6" s="47" t="s">
+      <c r="N6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="Q6" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="R6" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="P6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q6" s="47">
+      <c r="S6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T6" s="47">
         <v>16</v>
       </c>
-      <c r="R6" s="47">
+      <c r="U6" s="47">
         <v>16</v>
       </c>
-      <c r="S6" s="47" t="s">
+      <c r="V6" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="T6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W6" s="47">
+      <c r="W6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z6" s="47">
         <v>1100440052</v>
       </c>
-      <c r="X6" s="47" t="s">
+      <c r="AA6" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="Y6" s="47">
+      <c r="AB6" s="47">
         <v>45665456</v>
       </c>
-      <c r="Z6" s="47" t="s">
+      <c r="AC6" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="AA6" s="47" t="s">
+      <c r="AD6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AB6" s="47">
+      <c r="AE6" s="47">
         <v>1113332</v>
       </c>
-      <c r="AC6" s="47">
+      <c r="AF6" s="47">
         <v>23564589</v>
       </c>
-      <c r="AD6" s="49" t="s">
+      <c r="AG6" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="AE6" s="47" t="s">
+      <c r="AH6" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AF6" s="47" t="s">
+      <c r="AI6" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AG6" s="47" t="s">
+      <c r="AJ6" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AH6" s="47" t="s">
+      <c r="AK6" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AI6" s="47" t="s">
+      <c r="AL6" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AJ6" s="47" t="s">
+      <c r="AM6" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AK6" s="47">
+      <c r="AN6" s="47">
         <v>411006</v>
       </c>
-      <c r="AL6" s="47">
+      <c r="AO6" s="47">
         <v>124421</v>
       </c>
-      <c r="AM6" s="47" t="s">
+      <c r="AP6" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="AN6" s="47" t="s">
+      <c r="AQ6" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="AO6" s="47" t="s">
+      <c r="AR6" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="AP6" s="47" t="s">
+      <c r="AS6" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47" t="s">
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="AT6" s="47" t="s">
+      <c r="AW6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AU6" s="47">
+      <c r="AX6" s="47">
         <v>5431267812</v>
       </c>
-      <c r="AV6" s="47" t="s">
+      <c r="AY6" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="AW6" s="47" t="s">
+      <c r="AZ6" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="AX6" s="47">
+      <c r="BA6" s="47">
         <v>999</v>
       </c>
-      <c r="AY6" s="47" t="s">
+      <c r="BB6" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="AZ6" s="47" t="s">
+      <c r="BC6" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="BA6" s="47" t="s">
+      <c r="BD6" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="BB6" s="47" t="s">
+      <c r="BE6" s="47" t="s">
         <v>545</v>
       </c>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="9" t="s">
+      <c r="BF6" s="47"/>
+      <c r="BG6" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="BE6" s="9" t="s">
+      <c r="BH6" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="BF6" s="9" t="s">
+      <c r="BI6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BG6" s="9" t="s">
+      <c r="BJ6" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="BH6" s="9" t="s">
+      <c r="BK6" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="BI6" s="9" t="s">
+      <c r="BL6" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="BJ6" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK6" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL6" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM6" s="47" t="s">
+      <c r="BM6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP6" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="BN6" s="47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BQ6" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>555</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>556</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="C7" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="46" t="s">
         <v>540</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="I7" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="J7" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="H7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J7" s="47" t="s">
+      <c r="K7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M7" s="47" t="s">
+      <c r="N7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P7" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="Q7" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="R7" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="P7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q7" s="47">
+      <c r="S7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T7" s="47">
         <v>16</v>
       </c>
-      <c r="R7" s="47">
+      <c r="U7" s="47">
         <v>16</v>
       </c>
-      <c r="S7" s="47" t="s">
+      <c r="V7" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="T7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W7" s="47">
+      <c r="W7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z7" s="47">
         <v>1100440052</v>
       </c>
-      <c r="X7" s="47" t="s">
+      <c r="AA7" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="Y7" s="47">
+      <c r="AB7" s="47">
         <v>45665456</v>
       </c>
-      <c r="Z7" s="47" t="s">
+      <c r="AC7" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="AA7" s="47" t="s">
+      <c r="AD7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="47">
+      <c r="AE7" s="47">
         <v>1113332</v>
       </c>
-      <c r="AC7" s="47">
+      <c r="AF7" s="47">
         <v>23564589</v>
       </c>
-      <c r="AD7" s="49" t="s">
+      <c r="AG7" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="AE7" s="47" t="s">
+      <c r="AH7" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AF7" s="47" t="s">
+      <c r="AI7" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AG7" s="47" t="s">
+      <c r="AJ7" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AH7" s="47" t="s">
+      <c r="AK7" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AI7" s="47" t="s">
+      <c r="AL7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AJ7" s="47" t="s">
+      <c r="AM7" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AK7" s="47">
+      <c r="AN7" s="47">
         <v>411006</v>
       </c>
-      <c r="AL7" s="47">
+      <c r="AO7" s="47">
         <v>124421</v>
       </c>
-      <c r="AM7" s="47" t="s">
+      <c r="AP7" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="AN7" s="47" t="s">
+      <c r="AQ7" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="AO7" s="47" t="s">
+      <c r="AR7" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="AP7" s="47" t="s">
+      <c r="AS7" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="47"/>
-      <c r="AS7" s="47" t="s">
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="AT7" s="47" t="s">
+      <c r="AW7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AU7" s="47">
+      <c r="AX7" s="47">
         <v>5431267812</v>
       </c>
-      <c r="AV7" s="47" t="s">
+      <c r="AY7" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="AW7" s="47" t="s">
+      <c r="AZ7" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="AX7" s="47">
+      <c r="BA7" s="47">
         <v>999</v>
       </c>
-      <c r="AY7" s="47" t="s">
+      <c r="BB7" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="AZ7" s="47" t="s">
+      <c r="BC7" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="BA7" s="47" t="s">
+      <c r="BD7" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="BB7" s="47" t="s">
+      <c r="BE7" s="47" t="s">
         <v>545</v>
       </c>
-      <c r="BC7" s="47"/>
-      <c r="BD7" s="9" t="s">
+      <c r="BF7" s="47"/>
+      <c r="BG7" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="BE7" s="9" t="s">
+      <c r="BH7" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="BF7" s="9" t="s">
+      <c r="BI7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BG7" s="9" t="s">
+      <c r="BJ7" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="BH7" s="9" t="s">
+      <c r="BK7" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="BI7" s="9" t="s">
+      <c r="BL7" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="BJ7" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK7" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL7" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM7" s="47" t="s">
+      <c r="BM7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP7" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="BN7" s="47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BQ7" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>557</v>
       </c>
       <c r="B8" s="47" t="s">
         <v>558</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="48" t="s">
+      <c r="C8" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>230</v>
-      </c>
       <c r="J8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M8" s="47" t="s">
+      <c r="N8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P8" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="Q8" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="48" t="s">
+      <c r="R8" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="P8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q8" s="47">
+      <c r="S8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T8" s="47">
         <v>16</v>
       </c>
-      <c r="R8" s="47">
+      <c r="U8" s="47">
         <v>16</v>
       </c>
-      <c r="S8" s="47" t="s">
+      <c r="V8" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="T8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W8" s="47">
+      <c r="W8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z8" s="47">
         <v>1100440052</v>
       </c>
-      <c r="X8" s="47" t="s">
+      <c r="AA8" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="Y8" s="47">
+      <c r="AB8" s="47">
         <v>45665456</v>
       </c>
-      <c r="Z8" s="47" t="s">
+      <c r="AC8" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="AA8" s="47" t="s">
+      <c r="AD8" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AB8" s="47">
+      <c r="AE8" s="47">
         <v>1113332</v>
       </c>
-      <c r="AC8" s="47">
+      <c r="AF8" s="47">
         <v>23564589</v>
       </c>
-      <c r="AD8" s="49" t="s">
+      <c r="AG8" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="AE8" s="47" t="s">
+      <c r="AH8" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AF8" s="47" t="s">
+      <c r="AI8" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AG8" s="47" t="s">
+      <c r="AJ8" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AH8" s="47" t="s">
+      <c r="AK8" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AI8" s="47" t="s">
+      <c r="AL8" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AJ8" s="47" t="s">
+      <c r="AM8" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AK8" s="47">
+      <c r="AN8" s="47">
         <v>411006</v>
       </c>
-      <c r="AL8" s="47">
+      <c r="AO8" s="47">
         <v>124421</v>
       </c>
-      <c r="AM8" s="47" t="s">
+      <c r="AP8" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="AN8" s="47" t="s">
+      <c r="AQ8" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="AO8" s="47" t="s">
+      <c r="AR8" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="AP8" s="47" t="s">
+      <c r="AS8" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47" t="s">
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="47"/>
+      <c r="AV8" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="AT8" s="47" t="s">
+      <c r="AW8" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AU8" s="47">
+      <c r="AX8" s="47">
         <v>5431267812</v>
       </c>
-      <c r="AV8" s="47" t="s">
+      <c r="AY8" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="AW8" s="47" t="s">
+      <c r="AZ8" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="AX8" s="47">
+      <c r="BA8" s="47">
         <v>999</v>
       </c>
-      <c r="AY8" s="47" t="s">
+      <c r="BB8" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="AZ8" s="47" t="s">
+      <c r="BC8" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="BA8" s="47" t="s">
+      <c r="BD8" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="BB8" s="47" t="s">
+      <c r="BE8" s="47" t="s">
         <v>545</v>
       </c>
-      <c r="BC8" s="47"/>
-      <c r="BD8" s="9" t="s">
+      <c r="BF8" s="47"/>
+      <c r="BG8" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="BE8" s="9" t="s">
+      <c r="BH8" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="BF8" s="9" t="s">
+      <c r="BI8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BG8" s="9" t="s">
+      <c r="BJ8" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="BH8" s="9" t="s">
+      <c r="BK8" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="BI8" s="9" t="s">
+      <c r="BL8" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="BJ8" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK8" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL8" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM8" s="47" t="s">
+      <c r="BM8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP8" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="BN8" s="47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:66" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BQ8" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>559</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>560</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>134</v>
+      <c r="C9" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="47" t="s">
+        <v>230</v>
       </c>
       <c r="G9" s="47" t="s">
         <v>540</v>
@@ -11296,581 +12302,607 @@
       <c r="H9" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="I9" s="47" t="s">
-        <v>230</v>
+      <c r="I9" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="J9" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M9" s="47" t="s">
+      <c r="N9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P9" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="Q9" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="48" t="s">
+      <c r="R9" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="P9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q9" s="47">
+      <c r="S9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T9" s="47">
         <v>16</v>
       </c>
-      <c r="R9" s="47">
+      <c r="U9" s="47">
         <v>16</v>
       </c>
-      <c r="S9" s="47" t="s">
+      <c r="V9" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="T9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W9" s="47">
+      <c r="W9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z9" s="47">
         <v>1100440052</v>
       </c>
-      <c r="X9" s="47" t="s">
+      <c r="AA9" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="Y9" s="47">
+      <c r="AB9" s="47">
         <v>45665456</v>
       </c>
-      <c r="Z9" s="47" t="s">
+      <c r="AC9" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="AA9" s="47" t="s">
+      <c r="AD9" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AB9" s="47">
+      <c r="AE9" s="47">
         <v>1113332</v>
       </c>
-      <c r="AC9" s="47">
+      <c r="AF9" s="47">
         <v>23564589</v>
       </c>
-      <c r="AD9" s="49" t="s">
+      <c r="AG9" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="AE9" s="47" t="s">
+      <c r="AH9" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AF9" s="47" t="s">
+      <c r="AI9" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AG9" s="47" t="s">
+      <c r="AJ9" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AH9" s="47" t="s">
+      <c r="AK9" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AI9" s="47" t="s">
+      <c r="AL9" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AJ9" s="47" t="s">
+      <c r="AM9" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AK9" s="47">
+      <c r="AN9" s="47">
         <v>411006</v>
       </c>
-      <c r="AL9" s="47">
+      <c r="AO9" s="47">
         <v>124421</v>
       </c>
-      <c r="AM9" s="47" t="s">
+      <c r="AP9" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="AN9" s="47" t="s">
+      <c r="AQ9" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="AO9" s="47" t="s">
+      <c r="AR9" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="AP9" s="47" t="s">
+      <c r="AS9" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47"/>
-      <c r="AS9" s="47" t="s">
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="47"/>
+      <c r="AV9" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="AT9" s="47" t="s">
+      <c r="AW9" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AU9" s="47">
+      <c r="AX9" s="47">
         <v>5431267812</v>
       </c>
-      <c r="AV9" s="47" t="s">
+      <c r="AY9" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="AW9" s="47" t="s">
+      <c r="AZ9" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="AX9" s="47">
+      <c r="BA9" s="47">
         <v>999</v>
       </c>
-      <c r="AY9" s="47" t="s">
+      <c r="BB9" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="AZ9" s="47" t="s">
+      <c r="BC9" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="BA9" s="47" t="s">
+      <c r="BD9" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="BB9" s="47"/>
-      <c r="BC9" s="47"/>
-      <c r="BD9" s="9" t="s">
+      <c r="BE9" s="47"/>
+      <c r="BF9" s="47"/>
+      <c r="BG9" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="BE9" s="9" t="s">
+      <c r="BH9" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="BF9" s="9" t="s">
+      <c r="BI9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BG9" s="9" t="s">
+      <c r="BJ9" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="BH9" s="9" t="s">
+      <c r="BK9" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="BI9" s="9" t="s">
+      <c r="BL9" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="BJ9" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK9" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL9" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM9" s="47" t="s">
+      <c r="BM9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP9" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="BN9" s="47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BQ9" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>561</v>
       </c>
       <c r="B10" s="47" t="s">
         <v>562</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>134</v>
-      </c>
       <c r="G10" s="47" t="s">
-        <v>540</v>
+        <v>230</v>
       </c>
       <c r="H10" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="I10" s="47" t="s">
-        <v>230</v>
+      <c r="I10" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="J10" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M10" s="47" t="s">
+      <c r="N10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P10" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="47" t="s">
+      <c r="Q10" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="48" t="s">
+      <c r="R10" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="P10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q10" s="47">
+      <c r="S10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T10" s="47">
         <v>16</v>
       </c>
-      <c r="R10" s="47">
+      <c r="U10" s="47">
         <v>16</v>
       </c>
-      <c r="S10" s="47" t="s">
+      <c r="V10" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="T10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W10" s="47">
+      <c r="W10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z10" s="47">
         <v>1100440052</v>
       </c>
-      <c r="X10" s="47" t="s">
+      <c r="AA10" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="Y10" s="47">
+      <c r="AB10" s="47">
         <v>45665456</v>
       </c>
-      <c r="Z10" s="47" t="s">
+      <c r="AC10" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="AA10" s="47" t="s">
+      <c r="AD10" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AB10" s="47">
+      <c r="AE10" s="47">
         <v>1113332</v>
       </c>
-      <c r="AC10" s="47">
+      <c r="AF10" s="47">
         <v>23564589</v>
       </c>
-      <c r="AD10" s="49" t="s">
+      <c r="AG10" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="AE10" s="47" t="s">
+      <c r="AH10" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AF10" s="47" t="s">
+      <c r="AI10" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AG10" s="47" t="s">
+      <c r="AJ10" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AH10" s="47" t="s">
+      <c r="AK10" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AI10" s="47" t="s">
+      <c r="AL10" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AJ10" s="47" t="s">
+      <c r="AM10" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AK10" s="47">
+      <c r="AN10" s="47">
         <v>411006</v>
       </c>
-      <c r="AL10" s="47">
+      <c r="AO10" s="47">
         <v>124421</v>
       </c>
-      <c r="AM10" s="47" t="s">
+      <c r="AP10" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="AN10" s="47" t="s">
+      <c r="AQ10" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="AO10" s="47" t="s">
+      <c r="AR10" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="AP10" s="47" t="s">
+      <c r="AS10" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="AQ10" s="47"/>
-      <c r="AR10" s="47"/>
-      <c r="AS10" s="47" t="s">
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="47"/>
+      <c r="AV10" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="AT10" s="47" t="s">
+      <c r="AW10" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AU10" s="47">
+      <c r="AX10" s="47">
         <v>5431267812</v>
       </c>
-      <c r="AV10" s="47" t="s">
+      <c r="AY10" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="AW10" s="47" t="s">
+      <c r="AZ10" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="AX10" s="47">
+      <c r="BA10" s="47">
         <v>999</v>
       </c>
-      <c r="AY10" s="47" t="s">
+      <c r="BB10" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="AZ10" s="47" t="s">
+      <c r="BC10" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="BA10" s="47" t="s">
+      <c r="BD10" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="BB10" s="47"/>
-      <c r="BC10" s="47"/>
-      <c r="BD10" s="9" t="s">
+      <c r="BE10" s="47"/>
+      <c r="BF10" s="47"/>
+      <c r="BG10" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="BE10" s="9" t="s">
+      <c r="BH10" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="BF10" s="9" t="s">
+      <c r="BI10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BG10" s="9" t="s">
+      <c r="BJ10" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="BH10" s="9" t="s">
+      <c r="BK10" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="BI10" s="9" t="s">
+      <c r="BL10" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="BJ10" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK10" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL10" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM10" s="47" t="s">
+      <c r="BM10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP10" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="BN10" s="47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:66" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BQ10" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>563</v>
       </c>
       <c r="B11" s="47" t="s">
         <v>564</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" s="48" t="s">
+      <c r="C11" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="J11" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="K11" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="I11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J11" s="47" t="s">
+      <c r="L11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M11" s="47" t="s">
+      <c r="N11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P11" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="47" t="s">
+      <c r="Q11" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="O11" s="48" t="s">
+      <c r="R11" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="P11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q11" s="47">
+      <c r="S11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T11" s="47">
         <v>16</v>
       </c>
-      <c r="R11" s="47">
+      <c r="U11" s="47">
         <v>16</v>
       </c>
-      <c r="S11" s="47" t="s">
+      <c r="V11" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="T11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W11" s="47">
+      <c r="W11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z11" s="47">
         <v>1100440052</v>
       </c>
-      <c r="X11" s="47" t="s">
+      <c r="AA11" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="Y11" s="47">
+      <c r="AB11" s="47">
         <v>45665456</v>
       </c>
-      <c r="Z11" s="47" t="s">
+      <c r="AC11" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="AA11" s="47" t="s">
+      <c r="AD11" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AB11" s="47">
+      <c r="AE11" s="47">
         <v>1113332</v>
       </c>
-      <c r="AC11" s="47">
+      <c r="AF11" s="47">
         <v>23564589</v>
       </c>
-      <c r="AD11" s="49" t="s">
+      <c r="AG11" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="AE11" s="47" t="s">
+      <c r="AH11" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AF11" s="47" t="s">
+      <c r="AI11" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AG11" s="47" t="s">
+      <c r="AJ11" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AH11" s="47" t="s">
+      <c r="AK11" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AI11" s="47" t="s">
+      <c r="AL11" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AJ11" s="47" t="s">
+      <c r="AM11" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AK11" s="47">
+      <c r="AN11" s="47">
         <v>411006</v>
       </c>
-      <c r="AL11" s="47">
+      <c r="AO11" s="47">
         <v>124421</v>
       </c>
-      <c r="AM11" s="47" t="s">
+      <c r="AP11" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="AN11" s="47" t="s">
+      <c r="AQ11" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="AO11" s="47" t="s">
+      <c r="AR11" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="AP11" s="47" t="s">
+      <c r="AS11" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="AQ11" s="47"/>
-      <c r="AR11" s="47"/>
-      <c r="AS11" s="47" t="s">
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="AT11" s="47" t="s">
+      <c r="AW11" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AU11" s="47">
+      <c r="AX11" s="47">
         <v>5431267812</v>
       </c>
-      <c r="AV11" s="47" t="s">
+      <c r="AY11" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="AW11" s="47" t="s">
+      <c r="AZ11" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="AX11" s="47">
+      <c r="BA11" s="47">
         <v>999</v>
       </c>
-      <c r="AY11" s="47" t="s">
+      <c r="BB11" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="AZ11" s="47" t="s">
+      <c r="BC11" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="BA11" s="47" t="s">
+      <c r="BD11" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="BB11" s="47" t="s">
+      <c r="BE11" s="47" t="s">
         <v>545</v>
       </c>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="9" t="s">
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="BE11" s="9" t="s">
+      <c r="BH11" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="BF11" s="9" t="s">
+      <c r="BI11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BG11" s="9" t="s">
+      <c r="BJ11" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="BH11" s="9" t="s">
+      <c r="BK11" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="BI11" s="9" t="s">
+      <c r="BL11" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="BJ11" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK11" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL11" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM11" s="47" t="s">
+      <c r="BM11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP11" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="BN11" s="47" t="s">
-        <v>230</v>
-      </c>
+      <c r="BQ11" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1"/>
-    <hyperlink ref="AD2" r:id="rId2"/>
-    <hyperlink ref="X3" r:id="rId3"/>
-    <hyperlink ref="AD3" r:id="rId4"/>
-    <hyperlink ref="X5" r:id="rId5"/>
-    <hyperlink ref="AD5" r:id="rId6"/>
-    <hyperlink ref="X6" r:id="rId7"/>
-    <hyperlink ref="AD6" r:id="rId8"/>
-    <hyperlink ref="X4" r:id="rId9"/>
-    <hyperlink ref="AD4" r:id="rId10"/>
-    <hyperlink ref="X7" r:id="rId11"/>
-    <hyperlink ref="AD7" r:id="rId12"/>
-    <hyperlink ref="X8" r:id="rId13"/>
-    <hyperlink ref="AD8" r:id="rId14"/>
-    <hyperlink ref="X9" r:id="rId15"/>
-    <hyperlink ref="AD9" r:id="rId16"/>
-    <hyperlink ref="X10" r:id="rId17"/>
-    <hyperlink ref="AD10" r:id="rId18"/>
-    <hyperlink ref="X11" r:id="rId19"/>
-    <hyperlink ref="AD11" r:id="rId20"/>
+    <hyperlink ref="AA2" r:id="rId1"/>
+    <hyperlink ref="AG2" r:id="rId2"/>
+    <hyperlink ref="AA3" r:id="rId3"/>
+    <hyperlink ref="AG3" r:id="rId4"/>
+    <hyperlink ref="AA5" r:id="rId5"/>
+    <hyperlink ref="AG5" r:id="rId6"/>
+    <hyperlink ref="AA6" r:id="rId7"/>
+    <hyperlink ref="AG6" r:id="rId8"/>
+    <hyperlink ref="AA4" r:id="rId9"/>
+    <hyperlink ref="AG4" r:id="rId10"/>
+    <hyperlink ref="AA7" r:id="rId11"/>
+    <hyperlink ref="AG7" r:id="rId12"/>
+    <hyperlink ref="AA8" r:id="rId13"/>
+    <hyperlink ref="AG8" r:id="rId14"/>
+    <hyperlink ref="AA9" r:id="rId15"/>
+    <hyperlink ref="AG9" r:id="rId16"/>
+    <hyperlink ref="AA10" r:id="rId17"/>
+    <hyperlink ref="AG10" r:id="rId18"/>
+    <hyperlink ref="AA11" r:id="rId19"/>
+    <hyperlink ref="AG11" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="8970" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="LoyaltyPlan" sheetId="16" r:id="rId15"/>
     <sheet name="Prepaid_Application_Upload" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="701">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -2123,6 +2123,15 @@
   </si>
   <si>
     <t>AmexInstitutionSetup</t>
+  </si>
+  <si>
+    <t>3D_SECURE_TNX_INTERCHANGE</t>
+  </si>
+  <si>
+    <t>VALIDATE_CAVV_AVV</t>
+  </si>
+  <si>
+    <t>MasterCard [M]</t>
   </si>
 </sst>
 </file>
@@ -2297,7 +2306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2396,6 +2405,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6245,7 +6255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FD177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -10640,15 +10650,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ12"/>
+  <dimension ref="A1:BS12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BR3" sqref="BR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
@@ -10677,9 +10687,11 @@
     <col min="67" max="67" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="15" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
@@ -10887,8 +10899,14 @@
       <c r="BQ1" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="2" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR1" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>538</v>
       </c>
@@ -11086,8 +11104,14 @@
       <c r="BQ2" s="47" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR2" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS2" s="47" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>546</v>
       </c>
@@ -11283,8 +11307,14 @@
       <c r="BQ3" s="47" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="4" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR3" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS3" s="47" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>548</v>
       </c>
@@ -11480,8 +11510,14 @@
       <c r="BQ4" s="47" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="5" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR4" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS4" s="47" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>550</v>
       </c>
@@ -11679,8 +11715,14 @@
       <c r="BQ5" s="47" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="6" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR5" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS5" s="47" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>553</v>
       </c>
@@ -11878,8 +11920,14 @@
       <c r="BQ6" s="47" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="7" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR6" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS6" s="47" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>555</v>
       </c>
@@ -12077,8 +12125,14 @@
       <c r="BQ7" s="47" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="8" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR7" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS7" s="47" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>557</v>
       </c>
@@ -12280,8 +12334,14 @@
       <c r="BQ8" s="47" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="9" spans="1:69" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR8" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS8" s="47" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>559</v>
       </c>
@@ -12477,8 +12537,14 @@
       <c r="BQ9" s="47" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="10" spans="1:69" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR9" s="56" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS9" s="56" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>561</v>
       </c>
@@ -12674,8 +12740,14 @@
       <c r="BQ10" s="47" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="11" spans="1:69" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR10" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS10" s="47" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>563</v>
       </c>
@@ -12873,8 +12945,14 @@
       <c r="BQ11" s="47" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR11" s="56" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS11" s="56" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
         <v>602</v>
       </c>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -24,12 +24,12 @@
     <sheet name="LoyaltyPlan" sheetId="16" r:id="rId15"/>
     <sheet name="Prepaid_Application_Upload" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="701">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -2306,7 +2306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2405,7 +2405,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10650,15 +10649,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS12"/>
+  <dimension ref="A1:BS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BR3" sqref="BR3"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BF5" sqref="BF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
@@ -10687,8 +10686,6 @@
     <col min="67" max="67" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="15" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -11945,7 +11942,7 @@
       <c r="G7" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="47" t="s">
         <v>540</v>
       </c>
       <c r="I7" s="48" t="s">
@@ -12537,10 +12534,10 @@
       <c r="BQ9" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="BR9" s="56" t="s">
+      <c r="BR9" s="47" t="s">
         <v>505</v>
       </c>
-      <c r="BS9" s="56" t="s">
+      <c r="BS9" s="47" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12945,19 +12942,12 @@
       <c r="BQ11" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="BR11" s="56" t="s">
+      <c r="BR11" s="47" t="s">
         <v>505</v>
       </c>
-      <c r="BS11" s="56" t="s">
+      <c r="BS11" s="47" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="8970" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="4695" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Prepaid_Application_Upload" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -10651,8 +10652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BF5" sqref="BF5"/>
+    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="BS2" sqref="BS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10686,6 +10687,7 @@
     <col min="67" max="67" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="15" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="4695" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="8970" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="Prepaid_Application_Upload" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -2129,10 +2128,10 @@
     <t>3D_SECURE_TNX_INTERCHANGE</t>
   </si>
   <si>
-    <t>VALIDATE_CAVV_AVV</t>
-  </si>
-  <si>
     <t>MasterCard [M]</t>
+  </si>
+  <si>
+    <t>VALIDATE_CAVV_AAV</t>
   </si>
 </sst>
 </file>
@@ -10652,8 +10651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
-      <selection activeCell="BS2" sqref="BS2"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BS4" sqref="BS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10687,6 +10686,7 @@
     <col min="67" max="67" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="15" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="30" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10902,7 +10902,7 @@
         <v>698</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -11107,7 +11107,7 @@
         <v>505</v>
       </c>
       <c r="BS2" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -11310,7 +11310,7 @@
         <v>505</v>
       </c>
       <c r="BS3" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -11513,7 +11513,7 @@
         <v>505</v>
       </c>
       <c r="BS4" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -11718,7 +11718,7 @@
         <v>505</v>
       </c>
       <c r="BS5" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -11923,7 +11923,7 @@
         <v>505</v>
       </c>
       <c r="BS6" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -12128,7 +12128,7 @@
         <v>505</v>
       </c>
       <c r="BS7" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -12337,7 +12337,7 @@
         <v>505</v>
       </c>
       <c r="BS8" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:71" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -12540,7 +12540,7 @@
         <v>505</v>
       </c>
       <c r="BS9" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -12743,7 +12743,7 @@
         <v>505</v>
       </c>
       <c r="BS10" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="11" spans="1:71" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -12948,7 +12948,7 @@
         <v>505</v>
       </c>
       <c r="BS11" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/automation/TestData/TestData.xlsx
+++ b/src/main/resources/config/automation/TestData/TestData.xlsx
@@ -4,32 +4,33 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="8970" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="8970"/>
   </bookViews>
   <sheets>
-    <sheet name="S181372" sheetId="1" r:id="rId1"/>
-    <sheet name="S205014" sheetId="2" r:id="rId2"/>
-    <sheet name="S205000" sheetId="3" r:id="rId3"/>
-    <sheet name="S205009" sheetId="6" r:id="rId4"/>
-    <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId5"/>
-    <sheet name="AccounHeadMapping_S205175" sheetId="8" r:id="rId6"/>
-    <sheet name="AccountHead_S205168" sheetId="9" r:id="rId7"/>
-    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId8"/>
-    <sheet name="Institute" sheetId="5" r:id="rId9"/>
-    <sheet name="ApplicationUpload" sheetId="11" r:id="rId10"/>
-    <sheet name="AmlockDownloads" sheetId="15" r:id="rId11"/>
-    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId12"/>
-    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId13"/>
-    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
-    <sheet name="LoyaltyPlan" sheetId="16" r:id="rId15"/>
-    <sheet name="Prepaid_Application_Upload" sheetId="17" r:id="rId16"/>
+    <sheet name="CardHolder" sheetId="18" r:id="rId1"/>
+    <sheet name="S181372" sheetId="1" r:id="rId2"/>
+    <sheet name="S205014" sheetId="2" r:id="rId3"/>
+    <sheet name="S205000" sheetId="3" r:id="rId4"/>
+    <sheet name="S205009" sheetId="6" r:id="rId5"/>
+    <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId6"/>
+    <sheet name="AccounHeadMapping_S205175" sheetId="8" r:id="rId7"/>
+    <sheet name="AccountHead_S205168" sheetId="9" r:id="rId8"/>
+    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId9"/>
+    <sheet name="Institute" sheetId="5" r:id="rId10"/>
+    <sheet name="ApplicationUpload" sheetId="11" r:id="rId11"/>
+    <sheet name="AmlockDownloads" sheetId="15" r:id="rId12"/>
+    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId13"/>
+    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId14"/>
+    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId15"/>
+    <sheet name="LoyaltyPlan" sheetId="16" r:id="rId16"/>
+    <sheet name="Prepaid_Application_Upload" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="817">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1771,7 +1772,715 @@
     <t>http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login</t>
   </si>
   <si>
-    <t>1000000000</t>
+    <t>HighRiskCountry</t>
+  </si>
+  <si>
+    <t>TaxOnIncomeFeeType</t>
+  </si>
+  <si>
+    <t>TaxOnIncomeStatus</t>
+  </si>
+  <si>
+    <t>MccCode</t>
+  </si>
+  <si>
+    <t>CANADA [124]</t>
+  </si>
+  <si>
+    <t>Loan Processing Fee [44]</t>
+  </si>
+  <si>
+    <t>Accounting, Auditing, and Bookkeeping Services [8931]</t>
+  </si>
+  <si>
+    <t>HolidayType</t>
+  </si>
+  <si>
+    <t>LoanType</t>
+  </si>
+  <si>
+    <t>DraftNeeded</t>
+  </si>
+  <si>
+    <t>LoanTypeCreditLimit</t>
+  </si>
+  <si>
+    <t>LoanTypeCashLimit</t>
+  </si>
+  <si>
+    <t>Holiday [H]</t>
+  </si>
+  <si>
+    <t>Loan below credit limit [LOANCR]</t>
+  </si>
+  <si>
+    <t>Retail Transaction to Loan [LOANPUR]</t>
+  </si>
+  <si>
+    <t>ProgramWalletPromotion</t>
+  </si>
+  <si>
+    <t>DefaultLoanPlan</t>
+  </si>
+  <si>
+    <t>Program [0]</t>
+  </si>
+  <si>
+    <t>Padding</t>
+  </si>
+  <si>
+    <t>InstitutionCode</t>
+  </si>
+  <si>
+    <t>Abbrevation</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>555522</t>
+  </si>
+  <si>
+    <t>AUTHREG</t>
+  </si>
+  <si>
+    <t>GeneralisationMethod</t>
+  </si>
+  <si>
+    <t>PINlength</t>
+  </si>
+  <si>
+    <t>PVVOffset</t>
+  </si>
+  <si>
+    <t>PVKOffset</t>
+  </si>
+  <si>
+    <t>PINValidationData</t>
+  </si>
+  <si>
+    <t>PINVerificationKey</t>
+  </si>
+  <si>
+    <t>PINVerificationKeyCheck</t>
+  </si>
+  <si>
+    <t>CVVOffsetOnTrack</t>
+  </si>
+  <si>
+    <t>ComponentType</t>
+  </si>
+  <si>
+    <t>CVKACryptogram</t>
+  </si>
+  <si>
+    <t>CVKAKeyCheck</t>
+  </si>
+  <si>
+    <t>CVKBCryptogram</t>
+  </si>
+  <si>
+    <t>CVKBKeyCheck</t>
+  </si>
+  <si>
+    <t>CVV3Cryptogram</t>
+  </si>
+  <si>
+    <t>CVV3KeyCheckvalue</t>
+  </si>
+  <si>
+    <t>ATCOffsetOnTrack</t>
+  </si>
+  <si>
+    <t>UNOffsetOnTrack</t>
+  </si>
+  <si>
+    <t>CVC3OffsetOnTrack</t>
+  </si>
+  <si>
+    <t>NetworkInterface</t>
+  </si>
+  <si>
+    <t>KeyType</t>
+  </si>
+  <si>
+    <t>NetworkCryptogram</t>
+  </si>
+  <si>
+    <t>NetworkCryptogramCheckValue</t>
+  </si>
+  <si>
+    <t>MDKEncryptedUnderLMK</t>
+  </si>
+  <si>
+    <t>MDKKeyCheckValue</t>
+  </si>
+  <si>
+    <t>SMIEncryptedUnderLMKTxt</t>
+  </si>
+  <si>
+    <t>SMIKeyCheckvalues</t>
+  </si>
+  <si>
+    <t>SMCEncryptedUnderLMKTxt</t>
+  </si>
+  <si>
+    <t>SMCKeyCheckvalue</t>
+  </si>
+  <si>
+    <t>MDKKeyType</t>
+  </si>
+  <si>
+    <t>MDKInterchangeType</t>
+  </si>
+  <si>
+    <t>MDKStatus</t>
+  </si>
+  <si>
+    <t>AccountRangeFrom</t>
+  </si>
+  <si>
+    <t>AccountRangeTo</t>
+  </si>
+  <si>
+    <t>currencyCodeTxt</t>
+  </si>
+  <si>
+    <t>monthlyLimitTxt</t>
+  </si>
+  <si>
+    <t>monthlyVelocityTxt</t>
+  </si>
+  <si>
+    <t>yearlyLimitTxt</t>
+  </si>
+  <si>
+    <t>yearlyVelocityTxt</t>
+  </si>
+  <si>
+    <t>comparisonOperator</t>
+  </si>
+  <si>
+    <t>ruleCode</t>
+  </si>
+  <si>
+    <t>ruleValue</t>
+  </si>
+  <si>
+    <t>APILInkingUserID</t>
+  </si>
+  <si>
+    <t>IBM Method [3]</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1234567890123456</t>
+  </si>
+  <si>
+    <t>181CFD03C3F7385FCA36BF63DDD4BD01</t>
+  </si>
+  <si>
+    <t>829DD2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1-Single Component [1]</t>
+  </si>
+  <si>
+    <t>4A43436017024880</t>
+  </si>
+  <si>
+    <t>0EBBE7</t>
+  </si>
+  <si>
+    <t>B4638CBCEC1E6E52</t>
+  </si>
+  <si>
+    <t>985BDD</t>
+  </si>
+  <si>
+    <t>7B634E89DB88BBD9BB33C702FD1C9151</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>MasterCard(CIS) [03]</t>
+  </si>
+  <si>
+    <t>ZMK [6]</t>
+  </si>
+  <si>
+    <t>80F5706D510BF6F7D54D6DA3053CAB8A</t>
+  </si>
+  <si>
+    <t>2A7944</t>
+  </si>
+  <si>
+    <t>E60699F5B9ADE145FF6B0281D6FF7A71</t>
+  </si>
+  <si>
+    <t>2BC1FE</t>
+  </si>
+  <si>
+    <t>3B84D3C46E096114BF1A505A548A88AE</t>
+  </si>
+  <si>
+    <t>55AF3C</t>
+  </si>
+  <si>
+    <t>6B9D441DA33CF04F687C085A0CD9D8F8</t>
+  </si>
+  <si>
+    <t>9855B6</t>
+  </si>
+  <si>
+    <t>MDK Key [00]</t>
+  </si>
+  <si>
+    <t>INR:USD:LKR</t>
+  </si>
+  <si>
+    <t>525252523612345</t>
+  </si>
+  <si>
+    <t>525252523692345</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000</t>
+  </si>
+  <si>
+    <t>= [=]</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>InstitutionLoadCurrency</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login?0</t>
+  </si>
+  <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>BLACKEYEFD [576771]</t>
+  </si>
+  <si>
+    <t>EMBF6000</t>
+  </si>
+  <si>
+    <t>VEN6000</t>
+  </si>
+  <si>
+    <t>HDFCVendor01 [VEN6000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yerwada Pune </t>
+  </si>
+  <si>
+    <t>June/1/2033</t>
+  </si>
+  <si>
+    <t>235689</t>
+  </si>
+  <si>
+    <t>Amex Credit</t>
+  </si>
+  <si>
+    <t>Sequence number</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Program Code</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Active [0]</t>
+  </si>
+  <si>
+    <t>AmexInstitutionSetup</t>
+  </si>
+  <si>
+    <t>3D_SECURE_TNX_INTERCHANGE</t>
+  </si>
+  <si>
+    <t>MasterCard [M]</t>
+  </si>
+  <si>
+    <t>VALIDATE_CAVV_AAV</t>
+  </si>
+  <si>
+    <t>TranSactionType</t>
+  </si>
+  <si>
+    <t>TransactionAmount</t>
+  </si>
+  <si>
+    <t>TransactionCurrency</t>
+  </si>
+  <si>
+    <t>ConversionRate</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>TransferAmount</t>
+  </si>
+  <si>
+    <t>CurrencyName</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>TransfererName</t>
+  </si>
+  <si>
+    <t>Memo</t>
+  </si>
+  <si>
+    <t>TransactionPassword</t>
+  </si>
+  <si>
+    <t>TransactionRemarks</t>
+  </si>
+  <si>
+    <t>AmountToTransferWalletToWallet</t>
+  </si>
+  <si>
+    <t>WalletTransferCurrecny</t>
+  </si>
+  <si>
+    <t>WalletNumberFromTransferMoney</t>
+  </si>
+  <si>
+    <t>WalletToAmountTransfer</t>
+  </si>
+  <si>
+    <t>WalletToWalletTransferSucessMsg</t>
+  </si>
+  <si>
+    <t>NoOfTransactionsCount</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>ReplacementResone</t>
+  </si>
+  <si>
+    <t>ReplaceConfirmMessage</t>
+  </si>
+  <si>
+    <t>BlockCardRemark</t>
+  </si>
+  <si>
+    <t>BlockConfirmationMsg</t>
+  </si>
+  <si>
+    <t>UnblockCardRemark</t>
+  </si>
+  <si>
+    <t>UnblockConfirmationMsg</t>
+  </si>
+  <si>
+    <t>WalletActivationRemark</t>
+  </si>
+  <si>
+    <t>WalletDeactivateRemark</t>
+  </si>
+  <si>
+    <t>WalletActivateConfirmMsg</t>
+  </si>
+  <si>
+    <t>WalletDeactivateConfirmMsg</t>
+  </si>
+  <si>
+    <t>eComActivationConfirmMsg</t>
+  </si>
+  <si>
+    <t>beneficiaryID</t>
+  </si>
+  <si>
+    <t>beneficiaryFirstName</t>
+  </si>
+  <si>
+    <t>beneficiaryMiddleName</t>
+  </si>
+  <si>
+    <t>beneficiaryLastName</t>
+  </si>
+  <si>
+    <t>beneficiaryAddressLine1</t>
+  </si>
+  <si>
+    <t>beneficiaryAddressLine2</t>
+  </si>
+  <si>
+    <t>beneficiaryAddressLine3</t>
+  </si>
+  <si>
+    <t>beneficiaryCountryName</t>
+  </si>
+  <si>
+    <t>beneficiaryStateName</t>
+  </si>
+  <si>
+    <t>beneficiaryCityName</t>
+  </si>
+  <si>
+    <t>beneficiaryZIPCode</t>
+  </si>
+  <si>
+    <t>beneficiaryEmailAddress</t>
+  </si>
+  <si>
+    <t>beneficiaryMobileNumber</t>
+  </si>
+  <si>
+    <t>beneficiaryRemittanceAamount</t>
+  </si>
+  <si>
+    <t>beneficiaryRemittanceCurrency</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>CardHolderTransPassword</t>
+  </si>
+  <si>
+    <t>FirstSequrityQuestion</t>
+  </si>
+  <si>
+    <t>FirstSequrityAnswer</t>
+  </si>
+  <si>
+    <t>SecondSequrityQuestion</t>
+  </si>
+  <si>
+    <t>SecondSequrityAnswer</t>
+  </si>
+  <si>
+    <t>TC_walletToWalletTransfer</t>
+  </si>
+  <si>
+    <t>https://stage.sa.cardholder.mastercard.com/mpts/eis/app</t>
+  </si>
+  <si>
+    <t>12121218044000192</t>
+  </si>
+  <si>
+    <t>Fund Transfer</t>
+  </si>
+  <si>
+    <t>0.016000</t>
+  </si>
+  <si>
+    <t>5887659200346112</t>
+  </si>
+  <si>
+    <t>aBcd1234*</t>
+  </si>
+  <si>
+    <t>Wallet to wallet fund transfer</t>
+  </si>
+  <si>
+    <t>1802131212120070068</t>
+  </si>
+  <si>
+    <t>1802131212120070067</t>
+  </si>
+  <si>
+    <t>Your transaction is successful</t>
+  </si>
+  <si>
+    <t>TC_LoginCardholderPortal</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForFundTransfer</t>
+  </si>
+  <si>
+    <t>12121218036000463</t>
+  </si>
+  <si>
+    <t>TC_masterCardMoneyTransfer</t>
+  </si>
+  <si>
+    <t>10000117311000005</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>CMKO-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454564Done </t>
+  </si>
+  <si>
+    <t>TC_checkInterbankTransfer</t>
+  </si>
+  <si>
+    <t>TC_viewTransactionHistoryForWallet</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>31/10/2017</t>
+  </si>
+  <si>
+    <t>TC_deviceReplaceService</t>
+  </si>
+  <si>
+    <t>Emergency Replacement</t>
+  </si>
+  <si>
+    <t>Request is forwarded to institution</t>
+  </si>
+  <si>
+    <t>TC_deviceBlockFromCardHolder</t>
+  </si>
+  <si>
+    <t>Card need to block as it is stolne</t>
+  </si>
+  <si>
+    <t>Device Blocked Call Reference Number</t>
+  </si>
+  <si>
+    <t>Block my card</t>
+  </si>
+  <si>
+    <t>Unblock Device process successful</t>
+  </si>
+  <si>
+    <t>TC_deviceUnblockFromCardholder</t>
+  </si>
+  <si>
+    <t>TC_walletActivateFromCardHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activate Wallet </t>
+  </si>
+  <si>
+    <t>Request has been processed successfully with reference number</t>
+  </si>
+  <si>
+    <t>TC_walletDeActivateFromCardHolder</t>
+  </si>
+  <si>
+    <t>Deactivate Wallet</t>
+  </si>
+  <si>
+    <t>TC_activateEcomForLifeLong</t>
+  </si>
+  <si>
+    <t>DEVICE is already activated for life long use</t>
+  </si>
+  <si>
+    <t>TC_activationEcomForDuration</t>
+  </si>
+  <si>
+    <t>TC_activateEcomForNHours</t>
+  </si>
+  <si>
+    <t>TC_cashRemittanceBookting</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Mname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>MAHARASTHRA</t>
+  </si>
+  <si>
+    <t>mastercard@mastercard.com</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>TC_signUpCardholderPortal</t>
+  </si>
+  <si>
+    <t>TC_activationForInternationalUse</t>
+  </si>
+  <si>
+    <t>TC_activationNHoursForInternationalUse</t>
+  </si>
+  <si>
+    <t>TC_activationLifeLongForInternationalUse</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForWalletToWalletDebit</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForWalletClosure</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForVisaMoneyTransferDebit</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForIntraBnkWalletToWalletTransferDebit</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForMasterCardMoneySend</t>
+  </si>
+  <si>
+    <t>TC_RequestVirtualPrepaidCard</t>
+  </si>
+  <si>
+    <t>TC_createPinSetRquest</t>
+  </si>
+  <si>
+    <t>TC_visaMoneyTransfer</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +2490,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1825,8 +2534,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1845,8 +2562,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1941,12 +2670,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2041,8 +2780,30 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2346,585 +3107,4928 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK3"/>
+  <dimension ref="A1:BD28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>701</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>702</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>703</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>704</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>705</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>706</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>707</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>709</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>710</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>711</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>713</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>714</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>715</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>716</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>717</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="AA1" s="58" t="s">
+        <v>723</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="AK1" s="61" t="s">
+        <v>733</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>753</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>755</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>755</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>756</v>
+      </c>
+      <c r="F2" s="62">
+        <v>10</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>757</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>758</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>516</v>
+      </c>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62">
+        <v>9021723007</v>
+      </c>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="67" t="s">
+        <v>759</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q2" s="68">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="2">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2">
-        <v>200</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="R2" s="68" t="s">
+        <v>675</v>
+      </c>
+      <c r="S2" s="68" t="s">
+        <v>761</v>
+      </c>
+      <c r="T2" s="68" t="s">
+        <v>762</v>
+      </c>
+      <c r="U2" s="62" t="s">
+        <v>763</v>
+      </c>
+      <c r="V2" s="62"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="62"/>
+      <c r="AZ2" s="62"/>
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="62"/>
+      <c r="BC2" s="62"/>
+      <c r="BD2" s="62"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>755</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>755</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="L5" s="2">
+        <v>955689456</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="O5" s="69" t="s">
+        <v>759</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2">
         <v>10</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="3">
-        <v>12</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" s="3" t="s">
+      <c r="W7" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2">
+        <v>10</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z8" s="70" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2">
+        <v>10</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z9" s="70" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA9" s="70" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB9" s="70" t="s">
+        <v>781</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2">
+        <v>10</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z10" s="70" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA10" s="70" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB10" s="70" t="s">
+        <v>781</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2">
+        <v>10</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z11" s="70" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA11" s="70" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB11" s="70" t="s">
+        <v>781</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2">
+        <v>10</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z12" s="70" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA12" s="70" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB12" s="70" t="s">
+        <v>781</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2">
+        <v>10</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z13" s="70" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA13" s="70" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB13" s="70" t="s">
+        <v>781</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AI13" s="70" t="s">
+        <v>791</v>
+      </c>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2">
+        <v>10</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z14" s="70" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA14" s="70" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB14" s="70" t="s">
+        <v>781</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AI14" s="70" t="s">
+        <v>791</v>
+      </c>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2">
+        <v>10</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z15" s="70" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA15" s="70" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB15" s="70" t="s">
+        <v>781</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AI15" s="70" t="s">
+        <v>791</v>
+      </c>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="AS16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AT16" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AU16" s="71" t="s">
+        <v>803</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>805</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>756</v>
+      </c>
+      <c r="F17" s="62">
+        <v>5</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>757</v>
+      </c>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="62" t="s">
+        <v>795</v>
+      </c>
+      <c r="AK17" s="62" t="s">
+        <v>796</v>
+      </c>
+      <c r="AL17" s="62" t="s">
+        <v>797</v>
+      </c>
+      <c r="AM17" s="62" t="s">
+        <v>798</v>
+      </c>
+      <c r="AN17" s="62" t="s">
+        <v>799</v>
+      </c>
+      <c r="AO17" s="62" t="s">
+        <v>799</v>
+      </c>
+      <c r="AP17" s="62" t="s">
+        <v>800</v>
+      </c>
+      <c r="AQ17" s="62" t="s">
+        <v>801</v>
+      </c>
+      <c r="AR17" s="62" t="s">
+        <v>802</v>
+      </c>
+      <c r="AS17" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>411001</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>12</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>26</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>1000000000000</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>1999999999999</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="8">
-        <v>100</v>
-      </c>
-      <c r="BD2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="BE2" s="11">
-        <v>10000</v>
-      </c>
-      <c r="BF2">
-        <v>12</v>
-      </c>
-      <c r="BG2" s="11">
+      <c r="AT17" s="62">
+        <v>411033</v>
+      </c>
+      <c r="AU17" s="72" t="s">
+        <v>803</v>
+      </c>
+      <c r="AV17" s="62">
+        <v>7896543215</v>
+      </c>
+      <c r="AW17" s="62">
         <v>5000</v>
       </c>
-      <c r="BH2" s="11">
-        <v>20000</v>
-      </c>
-      <c r="BI2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="BJ2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>200</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="3">
-        <v>12</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="V3" s="3" t="s">
+      <c r="AX17" s="62" t="s">
+        <v>804</v>
+      </c>
+      <c r="AY17" s="62" t="s">
+        <v>759</v>
+      </c>
+      <c r="AZ17" s="62" t="s">
+        <v>759</v>
+      </c>
+      <c r="BA17" s="62"/>
+      <c r="BB17" s="62"/>
+      <c r="BC17" s="62"/>
+      <c r="BD17" s="62"/>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="AS18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="AT18" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AU18" s="71" t="s">
+        <v>803</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="AZ18" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="AS19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>411001</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>100</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>12</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>26</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>1000000000000</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>1999999999999</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>10000</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>100</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="8">
-        <v>100</v>
-      </c>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="BJ3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="AT19" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AU19" s="71" t="s">
+        <v>803</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="AZ19" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AU20" s="71" t="s">
+        <v>803</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>816</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="L28" s="2">
+        <v>955689456</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="O28" s="69" t="s">
+        <v>759</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AU16" r:id="rId1"/>
+    <hyperlink ref="AU17" r:id="rId2"/>
+    <hyperlink ref="AU18" r:id="rId3"/>
+    <hyperlink ref="AU19" r:id="rId4"/>
+    <hyperlink ref="AU20" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BS11"/>
+  <sheetViews>
+    <sheetView topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BS4" sqref="BS4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.5703125" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="46" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="30" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="V1" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="W1" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y1" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z1" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA1" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB1" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC1" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD1" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE1" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF1" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG1" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH1" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI1" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ1" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK1" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL1" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN1" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO1" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP1" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ1" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="AR1" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="AS1" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT1" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="AU1" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="AV1" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="AW1" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="AX1" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY1" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="AZ1" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="BA1" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="BB1" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="BC1" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="BD1" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="BE1" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="BF1" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="S2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T2" s="47">
+        <v>16</v>
+      </c>
+      <c r="U2" s="47">
+        <v>16</v>
+      </c>
+      <c r="V2" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="W2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z2" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB2" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AF2" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AG2" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH2" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI2" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ2" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK2" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL2" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN2" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AO2" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AP2" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ2" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR2" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS2" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX2" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AY2" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ2" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA2" s="47">
+        <v>999</v>
+      </c>
+      <c r="BB2" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC2" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BD2" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BE2" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="BF2" s="47"/>
+      <c r="BG2" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP2" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BQ2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR2" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS2" s="47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="S3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T3" s="47">
+        <v>16</v>
+      </c>
+      <c r="U3" s="47">
+        <v>16</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="W3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z3" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="AA3" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB3" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="AC3" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD3" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AF3" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AG3" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH3" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI3" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ3" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK3" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL3" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM3" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN3" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AO3" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AP3" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ3" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR3" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS3" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW3" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX3" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AY3" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ3" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA3" s="47">
+        <v>999</v>
+      </c>
+      <c r="BB3" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC3" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BD3" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BH3" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP3" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BQ3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR3" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS3" s="47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T4" s="47">
+        <v>16</v>
+      </c>
+      <c r="U4" s="47">
+        <v>16</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="W4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z4" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="AA4" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB4" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="AC4" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD4" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AF4" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AG4" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH4" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI4" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ4" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK4" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM4" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN4" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AO4" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AP4" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ4" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR4" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS4" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW4" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX4" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AY4" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ4" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA4" s="47">
+        <v>999</v>
+      </c>
+      <c r="BB4" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC4" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BD4" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BH4" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="BK4" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BM4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP4" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BQ4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR4" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS4" s="47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="S5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T5" s="47">
+        <v>16</v>
+      </c>
+      <c r="U5" s="47">
+        <v>16</v>
+      </c>
+      <c r="V5" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="W5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z5" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="AA5" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB5" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="AC5" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD5" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE5" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AF5" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AG5" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH5" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI5" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ5" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK5" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL5" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM5" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN5" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AO5" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AP5" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ5" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR5" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS5" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW5" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX5" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AY5" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ5" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA5" s="47">
+        <v>999</v>
+      </c>
+      <c r="BB5" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC5" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BD5" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BE5" s="47" t="s">
+        <v>552</v>
+      </c>
+      <c r="BF5" s="47"/>
+      <c r="BG5" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP5" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BQ5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR5" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS5" s="47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="R6" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="S6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T6" s="47">
+        <v>16</v>
+      </c>
+      <c r="U6" s="47">
+        <v>16</v>
+      </c>
+      <c r="V6" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="W6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z6" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="AA6" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB6" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="AC6" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD6" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE6" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AF6" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AG6" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH6" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI6" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ6" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK6" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL6" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM6" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN6" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AO6" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AP6" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ6" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR6" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS6" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW6" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX6" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AY6" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ6" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA6" s="47">
+        <v>999</v>
+      </c>
+      <c r="BB6" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC6" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BD6" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BE6" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="BF6" s="47"/>
+      <c r="BG6" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BH6" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BI6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ6" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="BK6" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BM6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP6" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BQ6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR6" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS6" s="47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>556</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="S7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T7" s="47">
+        <v>16</v>
+      </c>
+      <c r="U7" s="47">
+        <v>16</v>
+      </c>
+      <c r="V7" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="W7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z7" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="AA7" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB7" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="AC7" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD7" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AF7" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AG7" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH7" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI7" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ7" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK7" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL7" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM7" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN7" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AO7" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AP7" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ7" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR7" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS7" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW7" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX7" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AY7" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ7" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA7" s="47">
+        <v>999</v>
+      </c>
+      <c r="BB7" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC7" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BD7" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BE7" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="BF7" s="47"/>
+      <c r="BG7" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BH7" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BI7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ7" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="BK7" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BL7" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BM7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP7" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BQ7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR7" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS7" s="47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P8" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="S8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T8" s="47">
+        <v>16</v>
+      </c>
+      <c r="U8" s="47">
+        <v>16</v>
+      </c>
+      <c r="V8" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="W8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z8" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="AA8" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB8" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="AC8" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD8" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE8" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AF8" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AG8" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH8" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI8" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ8" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK8" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL8" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM8" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN8" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AO8" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AP8" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ8" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR8" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS8" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="47"/>
+      <c r="AV8" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW8" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX8" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AY8" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ8" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA8" s="47">
+        <v>999</v>
+      </c>
+      <c r="BB8" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC8" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BD8" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BE8" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="BF8" s="47"/>
+      <c r="BG8" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BH8" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BI8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ8" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="BK8" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BL8" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BM8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP8" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BQ8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR8" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS8" s="47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>560</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P9" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="R9" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="S9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T9" s="47">
+        <v>16</v>
+      </c>
+      <c r="U9" s="47">
+        <v>16</v>
+      </c>
+      <c r="V9" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="W9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z9" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="AA9" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB9" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="AC9" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD9" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE9" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AF9" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AG9" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH9" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI9" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ9" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK9" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL9" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM9" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN9" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AO9" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AP9" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ9" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR9" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS9" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="47"/>
+      <c r="AV9" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW9" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX9" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AY9" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ9" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA9" s="47">
+        <v>999</v>
+      </c>
+      <c r="BB9" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC9" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BD9" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BE9" s="47"/>
+      <c r="BF9" s="47"/>
+      <c r="BG9" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BH9" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BI9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ9" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="BK9" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BL9" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BM9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP9" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BQ9" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR9" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS9" s="47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>561</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P10" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="S10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T10" s="47">
+        <v>16</v>
+      </c>
+      <c r="U10" s="47">
+        <v>16</v>
+      </c>
+      <c r="V10" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="W10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z10" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="AA10" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB10" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="AC10" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD10" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE10" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AF10" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AG10" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH10" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI10" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ10" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK10" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL10" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM10" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN10" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AO10" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AP10" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ10" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR10" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS10" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="47"/>
+      <c r="AV10" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW10" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX10" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AY10" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ10" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA10" s="47">
+        <v>999</v>
+      </c>
+      <c r="BB10" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC10" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BD10" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BE10" s="47"/>
+      <c r="BF10" s="47"/>
+      <c r="BG10" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BH10" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BI10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ10" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="BK10" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BL10" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BM10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP10" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BQ10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR10" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS10" s="47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>564</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="N11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="S11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T11" s="47">
+        <v>16</v>
+      </c>
+      <c r="U11" s="47">
+        <v>16</v>
+      </c>
+      <c r="V11" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="W11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="X11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z11" s="47">
+        <v>1100440052</v>
+      </c>
+      <c r="AA11" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB11" s="47">
+        <v>45665456</v>
+      </c>
+      <c r="AC11" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD11" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="47">
+        <v>1113332</v>
+      </c>
+      <c r="AF11" s="47">
+        <v>23564589</v>
+      </c>
+      <c r="AG11" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH11" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI11" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ11" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK11" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL11" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM11" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN11" s="47">
+        <v>411006</v>
+      </c>
+      <c r="AO11" s="47">
+        <v>124421</v>
+      </c>
+      <c r="AP11" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ11" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR11" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS11" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW11" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX11" s="47">
+        <v>5431267812</v>
+      </c>
+      <c r="AY11" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ11" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA11" s="47">
+        <v>999</v>
+      </c>
+      <c r="BB11" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC11" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="BD11" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="BE11" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BH11" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="BI11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ11" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="BK11" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="BL11" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BM11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP11" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="BQ11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR11" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BS11" s="47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AA2" r:id="rId1"/>
+    <hyperlink ref="AG2" r:id="rId2"/>
+    <hyperlink ref="AA3" r:id="rId3"/>
+    <hyperlink ref="AG3" r:id="rId4"/>
+    <hyperlink ref="AA5" r:id="rId5"/>
+    <hyperlink ref="AG5" r:id="rId6"/>
+    <hyperlink ref="AA6" r:id="rId7"/>
+    <hyperlink ref="AG6" r:id="rId8"/>
+    <hyperlink ref="AA4" r:id="rId9"/>
+    <hyperlink ref="AG4" r:id="rId10"/>
+    <hyperlink ref="AA7" r:id="rId11"/>
+    <hyperlink ref="AG7" r:id="rId12"/>
+    <hyperlink ref="AA8" r:id="rId13"/>
+    <hyperlink ref="AG8" r:id="rId14"/>
+    <hyperlink ref="AA9" r:id="rId15"/>
+    <hyperlink ref="AG9" r:id="rId16"/>
+    <hyperlink ref="AA10" r:id="rId17"/>
+    <hyperlink ref="AG10" r:id="rId18"/>
+    <hyperlink ref="AA11" r:id="rId19"/>
+    <hyperlink ref="AG11" r:id="rId20"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
@@ -3261,7 +8365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3445,7 +8549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -3583,7 +8687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -3742,7 +8846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -3846,7 +8950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE2"/>
   <sheetViews>
@@ -4651,17 +9755,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DL1" workbookViewId="0">
-      <selection activeCell="EG6" sqref="EG6"/>
+    <sheetView topLeftCell="DL1" workbookViewId="0">
+      <selection activeCell="EB13" sqref="EB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -5863,7 +10967,7 @@
         <v>412</v>
       </c>
       <c r="EH3" s="42" t="s">
-        <v>580</v>
+        <v>411</v>
       </c>
       <c r="EI3" s="42" t="s">
         <v>51</v>
@@ -5888,10 +10992,590 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN177"/>
+  <dimension ref="A1:BK3"/>
   <sheetViews>
-    <sheetView topLeftCell="BH6" workbookViewId="0">
-      <selection activeCell="BR2" sqref="BR2:BR8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="3">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>411001</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>26</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>1000000000000</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>1999999999999</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="8">
+        <v>100</v>
+      </c>
+      <c r="BD2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE2" s="11">
+        <v>10000</v>
+      </c>
+      <c r="BF2">
+        <v>12</v>
+      </c>
+      <c r="BG2" s="11">
+        <v>5000</v>
+      </c>
+      <c r="BH2" s="11">
+        <v>20000</v>
+      </c>
+      <c r="BI2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>200</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="3">
+        <v>12</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>411001</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>26</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>1000000000000</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>1999999999999</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="8">
+        <v>100</v>
+      </c>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FD177"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5909,7 +11593,7 @@
     <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6261,9 +11945,137 @@
       <c r="DM1" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="DN1" s="4"/>
-    </row>
-    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="DN1" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="DR1" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="DS1" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="DT1" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="DU1" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="DV1" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="DW1" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="DX1" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="DY1" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="DZ1" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="EA1" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="EB1" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="EC1" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="ED1" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="EE1" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="EF1" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="EG1" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="EH1" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="EI1" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="EK1" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="EL1" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="EM1" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="EN1" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="EO1" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="EP1" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="EQ1" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="ER1" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="ES1" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="ET1" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="EU1" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="EV1" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="EW1" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="EX1" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="EY1" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="EZ1" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="FA1" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="FB1" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="FC1" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="FD1" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:160" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -6589,8 +12401,133 @@
       <c r="DM2" s="9" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="DN2" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="DO2" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DP2" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="DQ2" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="DR2" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="DS2" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="DT2" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="DU2" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="DV2" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="DW2" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="DX2" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="DY2" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="DZ2" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="EA2" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="EB2" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="EC2" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="ED2" s="9">
+        <v>1</v>
+      </c>
+      <c r="EE2" s="9">
+        <v>1</v>
+      </c>
+      <c r="EF2" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="EG2" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="EH2" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="EI2" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="EJ2" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="EK2" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="EL2" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="EM2" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="EN2" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="EO2" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="EP2" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="EQ2" s="9"/>
+      <c r="ER2" s="9"/>
+      <c r="ES2" s="52" t="s">
+        <v>672</v>
+      </c>
+      <c r="ET2" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="EU2" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="EV2" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="EW2" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="EX2" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="EY2" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="EZ2" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="FA2" s="53" t="s">
+        <v>679</v>
+      </c>
+      <c r="FB2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="FC2" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="FD2" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:160" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -6869,7 +12806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:160" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -7148,7 +13085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:160" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -7427,7 +13364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:160" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -7706,7 +13643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:160" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -7987,7 +13924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:160" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -8268,16 +14205,421 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="CS9"/>
-      <c r="CT9" t="s">
-        <v>162</v>
-      </c>
-      <c r="CU9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:160" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>682</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="U9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="W9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC9" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG9" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="AN9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO9" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP9" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ9" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR9" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="AS9" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="AT9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU9" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="AV9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY9" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="AZ9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB9" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="BC9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD9" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="BE9" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF9" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="BG9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ9" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="BK9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP9" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="BX9" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY9" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="BZ9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CA9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CC9" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="CF9" s="28"/>
+      <c r="CG9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH9" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="CI9" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CJ9" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="CK9" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="CL9" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="CP9" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="CQ9" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="CR9" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="CS9" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="CT9" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CU9" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="CV9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="CW9" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="CX9" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="CY9" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="CZ9" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="DA9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="DB9" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="DC9" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="DD9" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="DE9" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="DF9" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="DG9" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="DH9" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="DI9" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="DJ9" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="DK9" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="DL9" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="DM9" s="53" t="s">
+        <v>648</v>
+      </c>
+      <c r="DN9" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="DO9" s="53" t="s">
+        <v>649</v>
+      </c>
+      <c r="DP9" s="54" t="s">
+        <v>650</v>
+      </c>
+      <c r="DQ9" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="DR9" s="54" t="s">
+        <v>652</v>
+      </c>
+      <c r="DS9" s="54" t="s">
+        <v>653</v>
+      </c>
+      <c r="DT9" s="54" t="s">
+        <v>654</v>
+      </c>
+      <c r="DU9" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="DV9" s="54" t="s">
+        <v>656</v>
+      </c>
+      <c r="DW9" s="54" t="s">
+        <v>657</v>
+      </c>
+      <c r="DX9" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="DY9" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="DZ9" s="54" t="s">
+        <v>660</v>
+      </c>
+      <c r="EA9" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="EB9" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="EC9" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="ED9" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="EE9" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="EF9" s="53" t="s">
+        <v>663</v>
+      </c>
+      <c r="EG9" s="53" t="s">
+        <v>664</v>
+      </c>
+      <c r="EH9" s="53" t="s">
+        <v>665</v>
+      </c>
+      <c r="EI9" s="53" t="s">
+        <v>666</v>
+      </c>
+      <c r="EJ9" s="53" t="s">
+        <v>667</v>
+      </c>
+      <c r="EK9" s="53" t="s">
+        <v>668</v>
+      </c>
+      <c r="EL9" s="53" t="s">
+        <v>669</v>
+      </c>
+      <c r="EM9" s="53" t="s">
+        <v>670</v>
+      </c>
+      <c r="EN9" s="55" t="s">
+        <v>671</v>
+      </c>
+      <c r="EO9" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="EP9" s="55" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -8286,7 +14628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -8295,19 +14637,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
     <row r="17" spans="97:97" x14ac:dyDescent="0.25">
@@ -8799,7 +15141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -8959,7 +15301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R6"/>
   <sheetViews>
@@ -9290,7 +15632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -9369,7 +15711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -9443,7 +15785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -9547,7 +15889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -9623,1837 +15965,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1:DS1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>358</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="P1" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q1" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="R1" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="S1" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="45" t="s">
-        <v>531</v>
-      </c>
-      <c r="U1" s="45" t="s">
-        <v>532</v>
-      </c>
-      <c r="V1" s="45" t="s">
-        <v>533</v>
-      </c>
-      <c r="W1" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="X1" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y1" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z1" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA1" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB1" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC1" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD1" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE1" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF1" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG1" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH1" s="45" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI1" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK1" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL1" s="45" t="s">
-        <v>361</v>
-      </c>
-      <c r="AM1" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="AN1" s="45" t="s">
-        <v>363</v>
-      </c>
-      <c r="AO1" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="AP1" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="AQ1" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="AR1" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="AS1" s="45" t="s">
-        <v>368</v>
-      </c>
-      <c r="AT1" s="45" t="s">
-        <v>369</v>
-      </c>
-      <c r="AU1" s="45" t="s">
-        <v>370</v>
-      </c>
-      <c r="AV1" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="AW1" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="AX1" s="45" t="s">
-        <v>373</v>
-      </c>
-      <c r="AY1" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="AZ1" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="BA1" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="BB1" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="BC1" s="45" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>538</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>539</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M2" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q2" s="47">
-        <v>16</v>
-      </c>
-      <c r="R2" s="47">
-        <v>16</v>
-      </c>
-      <c r="S2" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="T2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V2" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W2" s="47">
-        <v>1100440052</v>
-      </c>
-      <c r="X2" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y2" s="47">
-        <v>45665456</v>
-      </c>
-      <c r="Z2" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA2" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="47">
-        <v>1113332</v>
-      </c>
-      <c r="AC2" s="47">
-        <v>23564589</v>
-      </c>
-      <c r="AD2" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE2" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF2" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG2" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH2" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI2" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK2" s="47">
-        <v>411006</v>
-      </c>
-      <c r="AL2" s="47">
-        <v>124421</v>
-      </c>
-      <c r="AM2" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN2" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO2" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP2" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT2" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU2" s="47">
-        <v>5431267812</v>
-      </c>
-      <c r="AV2" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW2" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX2" s="47">
-        <v>999</v>
-      </c>
-      <c r="AY2" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ2" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="BA2" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="BB2" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="BC2" s="47"/>
-    </row>
-    <row r="3" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>546</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>547</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q3" s="47">
-        <v>16</v>
-      </c>
-      <c r="R3" s="47">
-        <v>16</v>
-      </c>
-      <c r="S3" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W3" s="47">
-        <v>1100440052</v>
-      </c>
-      <c r="X3" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y3" s="47">
-        <v>45665456</v>
-      </c>
-      <c r="Z3" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA3" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="47">
-        <v>1113332</v>
-      </c>
-      <c r="AC3" s="47">
-        <v>23564589</v>
-      </c>
-      <c r="AD3" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE3" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF3" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG3" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH3" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI3" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK3" s="47">
-        <v>411006</v>
-      </c>
-      <c r="AL3" s="47">
-        <v>124421</v>
-      </c>
-      <c r="AM3" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN3" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO3" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP3" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT3" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU3" s="47">
-        <v>5431267812</v>
-      </c>
-      <c r="AV3" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW3" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX3" s="47">
-        <v>999</v>
-      </c>
-      <c r="AY3" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ3" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="BA3" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-    </row>
-    <row r="4" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>548</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>549</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M4" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O4" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q4" s="47">
-        <v>16</v>
-      </c>
-      <c r="R4" s="47">
-        <v>16</v>
-      </c>
-      <c r="S4" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W4" s="47">
-        <v>1100440052</v>
-      </c>
-      <c r="X4" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y4" s="47">
-        <v>45665456</v>
-      </c>
-      <c r="Z4" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA4" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" s="47">
-        <v>1113332</v>
-      </c>
-      <c r="AC4" s="47">
-        <v>23564589</v>
-      </c>
-      <c r="AD4" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE4" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF4" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG4" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH4" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI4" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ4" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK4" s="47">
-        <v>411006</v>
-      </c>
-      <c r="AL4" s="47">
-        <v>124421</v>
-      </c>
-      <c r="AM4" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN4" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO4" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP4" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT4" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU4" s="47">
-        <v>5431267812</v>
-      </c>
-      <c r="AV4" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW4" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX4" s="47">
-        <v>999</v>
-      </c>
-      <c r="AY4" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ4" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="BA4" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-    </row>
-    <row r="5" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>550</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q5" s="47">
-        <v>16</v>
-      </c>
-      <c r="R5" s="47">
-        <v>16</v>
-      </c>
-      <c r="S5" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="T5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W5" s="47">
-        <v>1100440052</v>
-      </c>
-      <c r="X5" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y5" s="47">
-        <v>45665456</v>
-      </c>
-      <c r="Z5" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA5" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB5" s="47">
-        <v>1113332</v>
-      </c>
-      <c r="AC5" s="47">
-        <v>23564589</v>
-      </c>
-      <c r="AD5" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE5" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF5" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG5" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH5" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI5" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ5" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK5" s="47">
-        <v>411006</v>
-      </c>
-      <c r="AL5" s="47">
-        <v>124421</v>
-      </c>
-      <c r="AM5" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN5" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO5" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP5" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT5" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU5" s="47">
-        <v>5431267812</v>
-      </c>
-      <c r="AV5" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW5" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX5" s="47">
-        <v>999</v>
-      </c>
-      <c r="AY5" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ5" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="BA5" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="BB5" s="47" t="s">
-        <v>552</v>
-      </c>
-      <c r="BC5" s="47"/>
-    </row>
-    <row r="6" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>553</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M6" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q6" s="47">
-        <v>16</v>
-      </c>
-      <c r="R6" s="47">
-        <v>16</v>
-      </c>
-      <c r="S6" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="T6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W6" s="47">
-        <v>1100440052</v>
-      </c>
-      <c r="X6" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y6" s="47">
-        <v>45665456</v>
-      </c>
-      <c r="Z6" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA6" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6" s="47">
-        <v>1113332</v>
-      </c>
-      <c r="AC6" s="47">
-        <v>23564589</v>
-      </c>
-      <c r="AD6" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE6" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF6" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG6" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH6" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI6" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ6" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK6" s="47">
-        <v>411006</v>
-      </c>
-      <c r="AL6" s="47">
-        <v>124421</v>
-      </c>
-      <c r="AM6" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN6" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO6" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP6" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT6" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU6" s="47">
-        <v>5431267812</v>
-      </c>
-      <c r="AV6" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW6" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX6" s="47">
-        <v>999</v>
-      </c>
-      <c r="AY6" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ6" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="BA6" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="BB6" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="BC6" s="47"/>
-    </row>
-    <row r="7" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>555</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>540</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M7" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q7" s="47">
-        <v>16</v>
-      </c>
-      <c r="R7" s="47">
-        <v>16</v>
-      </c>
-      <c r="S7" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="T7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W7" s="47">
-        <v>1100440052</v>
-      </c>
-      <c r="X7" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y7" s="47">
-        <v>45665456</v>
-      </c>
-      <c r="Z7" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA7" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7" s="47">
-        <v>1113332</v>
-      </c>
-      <c r="AC7" s="47">
-        <v>23564589</v>
-      </c>
-      <c r="AD7" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE7" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF7" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG7" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH7" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI7" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ7" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK7" s="47">
-        <v>411006</v>
-      </c>
-      <c r="AL7" s="47">
-        <v>124421</v>
-      </c>
-      <c r="AM7" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN7" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO7" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP7" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="47"/>
-      <c r="AS7" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT7" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU7" s="47">
-        <v>5431267812</v>
-      </c>
-      <c r="AV7" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW7" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX7" s="47">
-        <v>999</v>
-      </c>
-      <c r="AY7" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ7" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="BA7" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="BB7" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="BC7" s="47"/>
-    </row>
-    <row r="8" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
-        <v>557</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>558</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="P8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q8" s="47">
-        <v>16</v>
-      </c>
-      <c r="R8" s="47">
-        <v>16</v>
-      </c>
-      <c r="S8" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="T8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W8" s="47">
-        <v>1100440052</v>
-      </c>
-      <c r="X8" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y8" s="47">
-        <v>45665456</v>
-      </c>
-      <c r="Z8" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA8" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB8" s="47">
-        <v>1113332</v>
-      </c>
-      <c r="AC8" s="47">
-        <v>23564589</v>
-      </c>
-      <c r="AD8" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE8" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF8" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG8" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH8" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI8" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ8" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK8" s="47">
-        <v>411006</v>
-      </c>
-      <c r="AL8" s="47">
-        <v>124421</v>
-      </c>
-      <c r="AM8" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN8" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO8" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP8" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT8" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU8" s="47">
-        <v>5431267812</v>
-      </c>
-      <c r="AV8" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW8" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX8" s="47">
-        <v>999</v>
-      </c>
-      <c r="AY8" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ8" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="BA8" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="BB8" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="BC8" s="47"/>
-    </row>
-    <row r="9" spans="1:55" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
-        <v>559</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>560</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J9" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M9" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O9" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="P9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q9" s="47">
-        <v>16</v>
-      </c>
-      <c r="R9" s="47">
-        <v>16</v>
-      </c>
-      <c r="S9" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="T9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W9" s="47">
-        <v>1100440052</v>
-      </c>
-      <c r="X9" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y9" s="47">
-        <v>45665456</v>
-      </c>
-      <c r="Z9" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA9" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB9" s="47">
-        <v>1113332</v>
-      </c>
-      <c r="AC9" s="47">
-        <v>23564589</v>
-      </c>
-      <c r="AD9" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE9" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF9" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG9" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH9" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI9" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ9" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK9" s="47">
-        <v>411006</v>
-      </c>
-      <c r="AL9" s="47">
-        <v>124421</v>
-      </c>
-      <c r="AM9" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN9" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO9" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP9" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47"/>
-      <c r="AS9" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT9" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU9" s="47">
-        <v>5431267812</v>
-      </c>
-      <c r="AV9" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW9" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX9" s="47">
-        <v>999</v>
-      </c>
-      <c r="AY9" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ9" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="BA9" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="BB9" s="47"/>
-      <c r="BC9" s="47"/>
-    </row>
-    <row r="10" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>561</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>562</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M10" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O10" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="P10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q10" s="47">
-        <v>16</v>
-      </c>
-      <c r="R10" s="47">
-        <v>16</v>
-      </c>
-      <c r="S10" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="T10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W10" s="47">
-        <v>1100440052</v>
-      </c>
-      <c r="X10" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y10" s="47">
-        <v>45665456</v>
-      </c>
-      <c r="Z10" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA10" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="47">
-        <v>1113332</v>
-      </c>
-      <c r="AC10" s="47">
-        <v>23564589</v>
-      </c>
-      <c r="AD10" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE10" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF10" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG10" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH10" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI10" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ10" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK10" s="47">
-        <v>411006</v>
-      </c>
-      <c r="AL10" s="47">
-        <v>124421</v>
-      </c>
-      <c r="AM10" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN10" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO10" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP10" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ10" s="47"/>
-      <c r="AR10" s="47"/>
-      <c r="AS10" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT10" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU10" s="47">
-        <v>5431267812</v>
-      </c>
-      <c r="AV10" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW10" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX10" s="47">
-        <v>999</v>
-      </c>
-      <c r="AY10" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ10" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="BA10" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="BB10" s="47"/>
-      <c r="BC10" s="47"/>
-    </row>
-    <row r="11" spans="1:55" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>563</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="M11" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="P11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q11" s="47">
-        <v>16</v>
-      </c>
-      <c r="R11" s="47">
-        <v>16</v>
-      </c>
-      <c r="S11" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="T11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="U11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="V11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="W11" s="47">
-        <v>1100440052</v>
-      </c>
-      <c r="X11" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y11" s="47">
-        <v>45665456</v>
-      </c>
-      <c r="Z11" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA11" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB11" s="47">
-        <v>1113332</v>
-      </c>
-      <c r="AC11" s="47">
-        <v>23564589</v>
-      </c>
-      <c r="AD11" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE11" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF11" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG11" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH11" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI11" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ11" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK11" s="47">
-        <v>411006</v>
-      </c>
-      <c r="AL11" s="47">
-        <v>124421</v>
-      </c>
-      <c r="AM11" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN11" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO11" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP11" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ11" s="47"/>
-      <c r="AR11" s="47"/>
-      <c r="AS11" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT11" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU11" s="47">
-        <v>5431267812</v>
-      </c>
-      <c r="AV11" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW11" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX11" s="47">
-        <v>999</v>
-      </c>
-      <c r="AY11" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ11" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="BA11" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="BB11" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="BC11" s="47"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1"/>
-    <hyperlink ref="AD2" r:id="rId2"/>
-    <hyperlink ref="X3" r:id="rId3"/>
-    <hyperlink ref="AD3" r:id="rId4"/>
-    <hyperlink ref="X5" r:id="rId5"/>
-    <hyperlink ref="AD5" r:id="rId6"/>
-    <hyperlink ref="X6" r:id="rId7"/>
-    <hyperlink ref="AD6" r:id="rId8"/>
-    <hyperlink ref="X4" r:id="rId9"/>
-    <hyperlink ref="AD4" r:id="rId10"/>
-    <hyperlink ref="X7" r:id="rId11"/>
-    <hyperlink ref="AD7" r:id="rId12"/>
-    <hyperlink ref="X8" r:id="rId13"/>
-    <hyperlink ref="AD8" r:id="rId14"/>
-    <hyperlink ref="X9" r:id="rId15"/>
-    <hyperlink ref="AD9" r:id="rId16"/>
-    <hyperlink ref="X10" r:id="rId17"/>
-    <hyperlink ref="AD10" r:id="rId18"/>
-    <hyperlink ref="X11" r:id="rId19"/>
-    <hyperlink ref="AD11" r:id="rId20"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
-</worksheet>
 </file>